--- a/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>17.18277201038221</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>9.350667736646439</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20.25680767396379</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>63.15944038578626</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.010996130024624</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,128 +448,1100 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>32.06115789926693</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.02314291038197</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>16.21241742520839</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>8.874301485060917</v>
+      </c>
+      <c r="E3">
+        <v>19.08626287644533</v>
+      </c>
+      <c r="F3">
+        <v>58.94591201354766</v>
+      </c>
+      <c r="G3">
+        <v>2.032151627720545</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>29.6498896075493</v>
+      </c>
+      <c r="L3">
+        <v>10.21950947655519</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>15.60789408880406</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>8.584780381958302</v>
+      </c>
+      <c r="E4">
+        <v>18.35800587272372</v>
+      </c>
+      <c r="F4">
+        <v>56.32188069308835</v>
+      </c>
+      <c r="G4">
+        <v>2.045176623317314</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>28.11468062964354</v>
+      </c>
+      <c r="L4">
+        <v>9.706800135578444</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>15.35945028925951</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>8.46742438910894</v>
+      </c>
+      <c r="E5">
+        <v>18.05826103545481</v>
+      </c>
+      <c r="F5">
+        <v>55.24252282782766</v>
+      </c>
+      <c r="G5">
+        <v>2.050507552373652</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>27.47440057407783</v>
+      </c>
+      <c r="L5">
+        <v>9.492763018755108</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>15.31807435567435</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>8.447972733784386</v>
+      </c>
+      <c r="E6">
+        <v>18.00829470231053</v>
+      </c>
+      <c r="F6">
+        <v>55.06267581801148</v>
+      </c>
+      <c r="G6">
+        <v>2.051394522611613</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>27.3671720693264</v>
+      </c>
+      <c r="L6">
+        <v>9.456907240381419</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>15.60455178100907</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8.583195266344777</v>
+      </c>
+      <c r="E7">
+        <v>18.35397611497889</v>
+      </c>
+      <c r="F7">
+        <v>56.30736544850965</v>
+      </c>
+      <c r="G7">
+        <v>2.045248407144164</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>28.10610610919311</v>
+      </c>
+      <c r="L7">
+        <v>9.703934534573314</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>16.85003416730596</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>9.185711159405862</v>
+      </c>
+      <c r="E8">
+        <v>19.85479167823811</v>
+      </c>
+      <c r="F8">
+        <v>61.71367230886489</v>
+      </c>
+      <c r="G8">
+        <v>2.018292477885641</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>31.24050338715854</v>
+      </c>
+      <c r="L8">
+        <v>10.74988339817832</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>19.22412232730754</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>10.39957527363615</v>
+      </c>
+      <c r="E9">
+        <v>22.75712832042579</v>
+      </c>
+      <c r="F9">
+        <v>72.0889504579979</v>
+      </c>
+      <c r="G9">
+        <v>1.964925700398427</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>37.00362405828075</v>
+      </c>
+      <c r="L9">
+        <v>12.66214129918091</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>21.15254803385221</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>11.33020661896979</v>
+      </c>
+      <c r="E10">
+        <v>24.93216718769979</v>
+      </c>
+      <c r="F10">
+        <v>79.97806534802268</v>
+      </c>
+      <c r="G10">
+        <v>1.923990076442154</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>41.09418973446994</v>
+      </c>
+      <c r="L10">
+        <v>14.00749268419749</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>22.0371360127402</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>11.76904372545072</v>
+      </c>
+      <c r="E11">
+        <v>25.95390947112971</v>
+      </c>
+      <c r="F11">
+        <v>83.60464588831348</v>
+      </c>
+      <c r="G11">
+        <v>1.904538407944147</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>42.95258416192365</v>
+      </c>
+      <c r="L11">
+        <v>14.61447521654044</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>22.37121534117734</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>11.93834263136251</v>
+      </c>
+      <c r="E12">
+        <v>26.34829844971542</v>
+      </c>
+      <c r="F12">
+        <v>84.9898681334558</v>
+      </c>
+      <c r="G12">
+        <v>1.89699912027027</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>43.65937108827168</v>
+      </c>
+      <c r="L12">
+        <v>14.84452890509962</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>22.29928635429672</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>11.90172427405284</v>
+      </c>
+      <c r="E13">
+        <v>26.26297058781656</v>
+      </c>
+      <c r="F13">
+        <v>84.69087677500343</v>
+      </c>
+      <c r="G13">
+        <v>1.898631615278441</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>43.50694906682545</v>
+      </c>
+      <c r="L13">
+        <v>14.79495559864077</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>22.06463220014565</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>11.78290314575063</v>
+      </c>
+      <c r="E14">
+        <v>25.98618625199551</v>
+      </c>
+      <c r="F14">
+        <v>83.71832457481518</v>
+      </c>
+      <c r="G14">
+        <v>1.903921996853196</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>43.01064706586099</v>
+      </c>
+      <c r="L14">
+        <v>14.63339140401018</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>21.92081712640135</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>11.71056054314424</v>
+      </c>
+      <c r="E15">
+        <v>25.81772334532537</v>
+      </c>
+      <c r="F15">
+        <v>83.12439212616108</v>
+      </c>
+      <c r="G15">
+        <v>1.907138014161613</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>42.70716611090165</v>
+      </c>
+      <c r="L15">
+        <v>14.53448772204739</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>21.09455388962747</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>11.30190828709485</v>
+      </c>
+      <c r="E16">
+        <v>24.8662638370622</v>
+      </c>
+      <c r="F16">
+        <v>79.74232391663654</v>
+      </c>
+      <c r="G16">
+        <v>1.925240365979778</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>40.97295645391846</v>
+      </c>
+      <c r="L16">
+        <v>13.96779635507859</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>20.58496068527021</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>11.05571878520951</v>
+      </c>
+      <c r="E17">
+        <v>24.2925695633744</v>
+      </c>
+      <c r="F17">
+        <v>77.68115811293715</v>
+      </c>
+      <c r="G17">
+        <v>1.936099802034028</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>39.91054616584489</v>
+      </c>
+      <c r="L17">
+        <v>13.61943403598939</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>20.29057481916145</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>10.91550597123333</v>
+      </c>
+      <c r="E18">
+        <v>23.96542095802948</v>
+      </c>
+      <c r="F18">
+        <v>76.49869250485493</v>
+      </c>
+      <c r="G18">
+        <v>1.942271807372318</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>39.2989925718729</v>
+      </c>
+      <c r="L18">
+        <v>13.41852326746825</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>20.19065668861147</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>10.86824871009724</v>
+      </c>
+      <c r="E19">
+        <v>23.85506834045083</v>
+      </c>
+      <c r="F19">
+        <v>76.09869315117075</v>
+      </c>
+      <c r="G19">
+        <v>1.944350197332547</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>39.09176151010207</v>
+      </c>
+      <c r="L19">
+        <v>13.35038159220564</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>20.63933446636804</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>11.08177688797359</v>
+      </c>
+      <c r="E20">
+        <v>24.3533304987924</v>
+      </c>
+      <c r="F20">
+        <v>77.90021584399179</v>
+      </c>
+      <c r="G20">
+        <v>1.93495179717738</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>40.02367040443116</v>
+      </c>
+      <c r="L20">
+        <v>13.6565681084672</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>22.13357083733209</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>11.81771024511646</v>
+      </c>
+      <c r="E21">
+        <v>26.06725377645518</v>
+      </c>
+      <c r="F21">
+        <v>84.00359990835321</v>
+      </c>
+      <c r="G21">
+        <v>1.902373312179438</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>43.15630715577005</v>
+      </c>
+      <c r="L21">
+        <v>14.68083230733834</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>23.10563981027594</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>12.3175738096973</v>
+      </c>
+      <c r="E22">
+        <v>27.2331651488072</v>
+      </c>
+      <c r="F22">
+        <v>88.06690723919303</v>
+      </c>
+      <c r="G22">
+        <v>1.88003048824669</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>45.2240097330194</v>
+      </c>
+      <c r="L22">
+        <v>15.35211301234456</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>22.58682981621477</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>12.04866471485123</v>
+      </c>
+      <c r="E23">
+        <v>26.60547161582845</v>
+      </c>
+      <c r="F23">
+        <v>85.88861901668582</v>
+      </c>
+      <c r="G23">
+        <v>1.892074630203716</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>44.11711524765428</v>
+      </c>
+      <c r="L23">
+        <v>14.99327272830088</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>20.61475655107326</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>11.06999195560913</v>
+      </c>
+      <c r="E24">
+        <v>24.3258523434036</v>
+      </c>
+      <c r="F24">
+        <v>77.8011724303947</v>
+      </c>
+      <c r="G24">
+        <v>1.935471028230995</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>39.97252954218912</v>
+      </c>
+      <c r="L24">
+        <v>13.63978183009567</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>18.58861302066621</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>10.06617654482073</v>
+      </c>
+      <c r="E25">
+        <v>21.97054117939985</v>
+      </c>
+      <c r="F25">
+        <v>69.29239406284209</v>
+      </c>
+      <c r="G25">
+        <v>1.979542831851277</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>35.47757023424514</v>
+      </c>
+      <c r="L25">
+        <v>12.15744954281819</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.18277201038221</v>
+        <v>13.39159186974531</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.350667736646439</v>
+        <v>4.435105865904409</v>
       </c>
       <c r="E2">
-        <v>20.25680767396379</v>
+        <v>8.850828133439666</v>
       </c>
       <c r="F2">
-        <v>63.15944038578626</v>
+        <v>29.41983660185936</v>
       </c>
       <c r="G2">
-        <v>2.010996130024624</v>
+        <v>38.15733489473022</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.61209192312707</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.105845904406697</v>
       </c>
       <c r="K2">
-        <v>32.06115789926693</v>
+        <v>13.1128996772955</v>
       </c>
       <c r="L2">
-        <v>11.02314291038197</v>
+        <v>6.337277812885795</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.64053270332383</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15.29904482533482</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.21241742520839</v>
+        <v>12.85311464726287</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.874301485060917</v>
+        <v>4.411210505592119</v>
       </c>
       <c r="E3">
-        <v>19.08626287644533</v>
+        <v>8.880303391552252</v>
       </c>
       <c r="F3">
-        <v>58.94591201354766</v>
+        <v>29.07373140220452</v>
       </c>
       <c r="G3">
-        <v>2.032151627720545</v>
+        <v>37.41524552073454</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.58276105613448</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.132925973388733</v>
       </c>
       <c r="K3">
-        <v>29.6498896075493</v>
+        <v>12.2544676117784</v>
       </c>
       <c r="L3">
-        <v>10.21950947655519</v>
+        <v>6.14343333603863</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.37382604116563</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>15.51566269472591</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.60789408880406</v>
+        <v>12.51754229505851</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.584780381958302</v>
+        <v>4.397425858222009</v>
       </c>
       <c r="E4">
-        <v>18.35800587272372</v>
+        <v>8.899705540017937</v>
       </c>
       <c r="F4">
-        <v>56.32188069308835</v>
+        <v>28.88025400678397</v>
       </c>
       <c r="G4">
-        <v>2.045176623317314</v>
+        <v>36.98488342160559</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.57230487525021</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.150237249187373</v>
       </c>
       <c r="K4">
-        <v>28.11468062964354</v>
+        <v>11.69804690955884</v>
       </c>
       <c r="L4">
-        <v>9.706800135578444</v>
+        <v>6.024059888667805</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.21132779754012</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15.65195585873504</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.35945028925951</v>
+        <v>12.37975497135155</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.46742438910894</v>
+        <v>4.392027937518041</v>
       </c>
       <c r="E5">
-        <v>18.05826103545481</v>
+        <v>8.90793547461176</v>
       </c>
       <c r="F5">
-        <v>55.24252282782766</v>
+        <v>28.80612744869736</v>
       </c>
       <c r="G5">
-        <v>2.050507552373652</v>
+        <v>36.8158853575788</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.56988508998798</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.157464144052433</v>
       </c>
       <c r="K5">
-        <v>27.47440057407783</v>
+        <v>11.46389151500569</v>
       </c>
       <c r="L5">
-        <v>9.492763018755108</v>
+        <v>5.975391357273497</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.14550760235752</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>15.70834229289429</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.31807435567435</v>
+        <v>12.35681916336318</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.447972733784386</v>
+        <v>4.391144767009107</v>
       </c>
       <c r="E6">
-        <v>18.00829470231053</v>
+        <v>8.909321456456151</v>
       </c>
       <c r="F6">
-        <v>55.06267581801148</v>
+        <v>28.79410146722533</v>
       </c>
       <c r="G6">
-        <v>2.051394522611613</v>
+        <v>36.78820878650679</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.56959278563002</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.158674590616037</v>
       </c>
       <c r="K6">
-        <v>27.3671720693264</v>
+        <v>11.42456188944046</v>
       </c>
       <c r="L6">
-        <v>9.456907240381419</v>
+        <v>5.967310602681533</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.13460476283631</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>15.71775684680781</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.60455178100907</v>
+        <v>12.51568796649553</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.583195266344777</v>
+        <v>4.397352176176915</v>
       </c>
       <c r="E7">
-        <v>18.35397611497889</v>
+        <v>8.8998152280559</v>
       </c>
       <c r="F7">
-        <v>56.30736544850965</v>
+        <v>28.87923530965394</v>
       </c>
       <c r="G7">
-        <v>2.045248407144164</v>
+        <v>36.98257841756857</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.57226486321184</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.150334014948839</v>
       </c>
       <c r="K7">
-        <v>28.10610610919311</v>
+        <v>11.69491904558359</v>
       </c>
       <c r="L7">
-        <v>9.703934534573314</v>
+        <v>6.023403530630229</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.21043839689707</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>15.65271285645498</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.85003416730596</v>
+        <v>13.20706706185074</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.185711159405862</v>
+        <v>4.426680328484741</v>
       </c>
       <c r="E8">
-        <v>19.85479167823811</v>
+        <v>8.860717637281443</v>
       </c>
       <c r="F8">
-        <v>61.71367230886489</v>
+        <v>29.29651102635374</v>
       </c>
       <c r="G8">
-        <v>2.018292477885641</v>
+        <v>37.89623221052767</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.60037613514123</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.115041380195033</v>
       </c>
       <c r="K8">
-        <v>31.24050338715854</v>
+        <v>12.8229805782624</v>
       </c>
       <c r="L8">
-        <v>10.74988339817832</v>
+        <v>6.270551356968706</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.54835900686814</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>15.37306357687842</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.22412232730754</v>
+        <v>14.51580394680118</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.39957527363615</v>
+        <v>4.491414100287294</v>
       </c>
       <c r="E9">
-        <v>22.75712832042579</v>
+        <v>8.794624080234872</v>
       </c>
       <c r="F9">
-        <v>72.0889504579979</v>
+        <v>30.26841640313836</v>
       </c>
       <c r="G9">
-        <v>1.964925700398427</v>
+        <v>39.88694311714242</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.71802091492401</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.051243516096463</v>
       </c>
       <c r="K9">
-        <v>37.00362405828075</v>
+        <v>14.80408632396743</v>
       </c>
       <c r="L9">
-        <v>12.66214129918091</v>
+        <v>6.749773535599546</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.21758823443101</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.8498839041957</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.15254803385221</v>
+        <v>15.4398199292354</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.33020661896979</v>
+        <v>4.543659947022402</v>
       </c>
       <c r="E10">
-        <v>24.93216718769979</v>
+        <v>8.752869441568079</v>
       </c>
       <c r="F10">
-        <v>79.97806534802268</v>
+        <v>31.07918596896018</v>
       </c>
       <c r="G10">
-        <v>1.923990076442154</v>
+        <v>41.46823504827001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.84610326841697</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.007651714548409</v>
       </c>
       <c r="K10">
-        <v>41.09418973446994</v>
+        <v>16.12166566296292</v>
       </c>
       <c r="L10">
-        <v>14.00749268419749</v>
+        <v>7.095405543317747</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.70901199481877</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>14.47959912114956</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.0371360127402</v>
+        <v>15.85061574711228</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.76904372545072</v>
+        <v>4.568517250427136</v>
       </c>
       <c r="E11">
-        <v>25.95390947112971</v>
+        <v>8.735443649406296</v>
       </c>
       <c r="F11">
-        <v>83.60464588831348</v>
+        <v>31.46955665662699</v>
       </c>
       <c r="G11">
-        <v>1.904538407944147</v>
+        <v>42.21277947193573</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.91417083596043</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.988531338861217</v>
       </c>
       <c r="K11">
-        <v>42.95258416192365</v>
+        <v>16.69184675474801</v>
       </c>
       <c r="L11">
-        <v>14.61447521654044</v>
+        <v>7.250697437135225</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.93173016161868</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>14.31392092824868</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.37121534117734</v>
+        <v>16.00471033813171</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.93834263136251</v>
+        <v>4.578093556965331</v>
       </c>
       <c r="E12">
-        <v>26.34829844971542</v>
+        <v>8.729079411649819</v>
       </c>
       <c r="F12">
-        <v>84.9898681334558</v>
+        <v>31.62051537830527</v>
       </c>
       <c r="G12">
-        <v>1.89699912027027</v>
+        <v>42.49829683935913</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.94141771336321</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.981393142105851</v>
       </c>
       <c r="K12">
-        <v>43.65937108827168</v>
+        <v>16.90362728628623</v>
       </c>
       <c r="L12">
-        <v>14.84452890509962</v>
+        <v>7.309186661261413</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.01589106700204</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14.2515569313527</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.29928635429672</v>
+        <v>15.97158972894206</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.90172427405284</v>
+        <v>4.576023747553956</v>
       </c>
       <c r="E13">
-        <v>26.26297058781656</v>
+        <v>8.730439478833139</v>
       </c>
       <c r="F13">
-        <v>84.69087677500343</v>
+        <v>31.58786377740164</v>
       </c>
       <c r="G13">
-        <v>1.898631615278441</v>
+        <v>42.43664725442275</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.93548319448949</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.982925926545704</v>
       </c>
       <c r="K13">
-        <v>43.50694906682545</v>
+        <v>16.85819938969119</v>
       </c>
       <c r="L13">
-        <v>14.79495559864077</v>
+        <v>7.296604568311748</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.99777425331505</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.26497184018086</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.06463220014565</v>
+        <v>15.86332302113473</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.78290314575063</v>
+        <v>4.569301783744927</v>
       </c>
       <c r="E14">
-        <v>25.98618625199551</v>
+        <v>8.734915304142898</v>
       </c>
       <c r="F14">
-        <v>83.71832457481518</v>
+        <v>31.48191311343934</v>
       </c>
       <c r="G14">
-        <v>1.903921996853196</v>
+        <v>42.23619776264567</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.91638261414692</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.987942023542798</v>
       </c>
       <c r="K14">
-        <v>43.01064706586099</v>
+        <v>16.70935255152621</v>
       </c>
       <c r="L14">
-        <v>14.63339140401018</v>
+        <v>7.255515916674421</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.93865799523515</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.30878282833783</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.92081712640135</v>
+        <v>15.79681335262111</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.71056054314424</v>
+        <v>4.565205873994375</v>
       </c>
       <c r="E15">
-        <v>25.81772334532537</v>
+        <v>8.73768770385918</v>
       </c>
       <c r="F15">
-        <v>83.12439212616108</v>
+        <v>31.41742443135518</v>
       </c>
       <c r="G15">
-        <v>1.907138014161613</v>
+        <v>42.11388088660017</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.90487638228532</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.991027856227873</v>
       </c>
       <c r="K15">
-        <v>42.70716611090165</v>
+        <v>16.61764307059963</v>
       </c>
       <c r="L15">
-        <v>14.53448772204739</v>
+        <v>7.230305707621016</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.90242285536429</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>14.3356664323485</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.09455388962747</v>
+        <v>15.41277306044703</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.30190828709485</v>
+        <v>4.542057950063839</v>
       </c>
       <c r="E16">
-        <v>24.8662638370622</v>
+        <v>8.754040564873335</v>
       </c>
       <c r="F16">
-        <v>79.74232391663654</v>
+        <v>31.054110949826</v>
       </c>
       <c r="G16">
-        <v>1.925240365979778</v>
+        <v>41.42008000472116</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.84185739781515</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.008915572456112</v>
       </c>
       <c r="K16">
-        <v>40.97295645391846</v>
+        <v>16.08382084447836</v>
       </c>
       <c r="L16">
-        <v>13.96779635507859</v>
+        <v>7.08521448348914</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.69443496652289</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>14.49048028763184</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.58496068527021</v>
+        <v>15.17466036839713</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.05571878520951</v>
+        <v>4.528141162310246</v>
       </c>
       <c r="E17">
-        <v>24.2925695633744</v>
+        <v>8.76448032351534</v>
       </c>
       <c r="F17">
-        <v>77.68115811293715</v>
+        <v>30.83677414684959</v>
       </c>
       <c r="G17">
-        <v>1.936099802034028</v>
+        <v>41.00087271413614</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.80575161874862</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.020070990746485</v>
       </c>
       <c r="K17">
-        <v>39.91054616584489</v>
+        <v>15.74890465384535</v>
       </c>
       <c r="L17">
-        <v>13.61943403598939</v>
+        <v>6.995680492320297</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.56658434417649</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>14.58614585778755</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.29057481916145</v>
+        <v>15.03681019799557</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.91550597123333</v>
+        <v>4.520238788941316</v>
       </c>
       <c r="E18">
-        <v>23.96542095802948</v>
+        <v>8.770632043635919</v>
       </c>
       <c r="F18">
-        <v>76.49869250485493</v>
+        <v>30.71379395474178</v>
       </c>
       <c r="G18">
-        <v>1.942271807372318</v>
+        <v>40.76213087276035</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.78590346937779</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.026554075386371</v>
       </c>
       <c r="K18">
-        <v>39.2989925718729</v>
+        <v>15.55351790123987</v>
       </c>
       <c r="L18">
-        <v>13.41852326746825</v>
+        <v>6.944002369449763</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.49297266226173</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.64143194784308</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.19065668861147</v>
+        <v>14.98998608434183</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.86824871009724</v>
+        <v>4.517580545545001</v>
       </c>
       <c r="E19">
-        <v>23.85506834045083</v>
+        <v>8.772739909679611</v>
       </c>
       <c r="F19">
-        <v>76.09869315117075</v>
+        <v>30.67250188600925</v>
       </c>
       <c r="G19">
-        <v>1.944350197332547</v>
+        <v>40.68170661708932</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.77933918412615</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.028760602751586</v>
       </c>
       <c r="K19">
-        <v>39.09176151010207</v>
+        <v>15.4868888359312</v>
       </c>
       <c r="L19">
-        <v>13.35038159220564</v>
+        <v>6.926475292470305</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.46803794513838</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>14.66019652224811</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.63933446636804</v>
+        <v>15.20010113333756</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.08177688797359</v>
+        <v>4.529612006226117</v>
       </c>
       <c r="E20">
-        <v>24.3533304987924</v>
+        <v>8.76335371298657</v>
       </c>
       <c r="F20">
-        <v>77.90021584399179</v>
+        <v>30.85970006043964</v>
       </c>
       <c r="G20">
-        <v>1.93495179717738</v>
+        <v>41.0452526308299</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.80949958870243</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.018876564630102</v>
       </c>
       <c r="K20">
-        <v>40.02367040443116</v>
+        <v>15.7848414154946</v>
       </c>
       <c r="L20">
-        <v>13.6565681084672</v>
+        <v>7.005230517547867</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.58020250547261</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>14.57593516591536</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.13357083733209</v>
+        <v>15.89516397511268</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.81771024511646</v>
+        <v>4.571271696592538</v>
       </c>
       <c r="E21">
-        <v>26.06725377645518</v>
+        <v>8.733594203778848</v>
       </c>
       <c r="F21">
-        <v>84.00359990835321</v>
+        <v>31.51294806019832</v>
       </c>
       <c r="G21">
-        <v>1.902373312179438</v>
+        <v>42.29497796496587</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.92195249740313</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.98646589599852</v>
       </c>
       <c r="K21">
-        <v>43.15630715577005</v>
+        <v>16.75318416100074</v>
       </c>
       <c r="L21">
-        <v>14.68083230733834</v>
+        <v>7.26759350751327</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.95602711876536</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.29590449522941</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.10563981027594</v>
+        <v>16.34085985460732</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.3175738096973</v>
+        <v>4.599454729335342</v>
       </c>
       <c r="E22">
-        <v>27.2331651488072</v>
+        <v>8.715516638860395</v>
       </c>
       <c r="F22">
-        <v>88.06690723919303</v>
+        <v>31.95816654923903</v>
       </c>
       <c r="G22">
-        <v>1.88003048824669</v>
+        <v>43.13256742124318</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.00405102712581</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.965880014275664</v>
       </c>
       <c r="K22">
-        <v>45.2240097330194</v>
+        <v>17.36198507608247</v>
       </c>
       <c r="L22">
-        <v>15.35211301234456</v>
+        <v>7.437205375552698</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.20059329474053</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>14.11506145040487</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.58682981621477</v>
+        <v>16.10379314760578</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.04866471485123</v>
+        <v>4.584323038316649</v>
       </c>
       <c r="E23">
-        <v>26.60547161582845</v>
+        <v>8.725036185693369</v>
       </c>
       <c r="F23">
-        <v>85.88861901668582</v>
+        <v>31.71886038801559</v>
       </c>
       <c r="G23">
-        <v>1.892074630203716</v>
+        <v>42.68363816064761</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.95942574046849</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.976812402287361</v>
       </c>
       <c r="K23">
-        <v>44.11711524765428</v>
+        <v>17.03923649769389</v>
       </c>
       <c r="L23">
-        <v>14.99327272830088</v>
+        <v>7.346861128704273</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.07017763041041</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.21138969593056</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.61475655107326</v>
+        <v>15.18860233403564</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.06999195560913</v>
+        <v>4.528946731144615</v>
       </c>
       <c r="E24">
-        <v>24.3258523434036</v>
+        <v>8.763862587789866</v>
       </c>
       <c r="F24">
-        <v>77.8011724303947</v>
+        <v>30.84932912259352</v>
       </c>
       <c r="G24">
-        <v>1.935471028230995</v>
+        <v>41.02518140836045</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.8078023031181</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.019416347634336</v>
       </c>
       <c r="K24">
-        <v>39.97252954218912</v>
+        <v>15.76860325303798</v>
       </c>
       <c r="L24">
-        <v>13.63978183009567</v>
+        <v>7.000913583112579</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.57404606871233</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>14.58055052503143</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.58861302066621</v>
+        <v>14.16779122185898</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.06617654482073</v>
+        <v>4.47310115826358</v>
       </c>
       <c r="E25">
-        <v>21.97054117939985</v>
+        <v>8.811337573718802</v>
       </c>
       <c r="F25">
-        <v>69.29239406284209</v>
+        <v>29.988699055013</v>
       </c>
       <c r="G25">
-        <v>1.979542831851277</v>
+        <v>39.32734066257535</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.67913593288933</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.067925499187711</v>
       </c>
       <c r="K25">
-        <v>35.47757023424514</v>
+        <v>14.29259838287197</v>
       </c>
       <c r="L25">
-        <v>12.15744954281819</v>
+        <v>6.621059139642901</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.03630100341799</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>14.98884814000103</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.39159186974531</v>
+        <v>17.61317913292495</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.435105865904409</v>
+        <v>7.888452948504171</v>
       </c>
       <c r="E2">
-        <v>8.850828133439666</v>
+        <v>14.3414213402736</v>
       </c>
       <c r="F2">
-        <v>29.41983660185936</v>
+        <v>42.13282251075115</v>
       </c>
       <c r="G2">
-        <v>38.15733489473022</v>
+        <v>49.80736577915413</v>
       </c>
       <c r="H2">
-        <v>12.61209192312707</v>
+        <v>19.55169442134907</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.105845904406697</v>
+        <v>11.31980718705681</v>
       </c>
       <c r="K2">
-        <v>13.1128996772955</v>
+        <v>12.02629931463118</v>
       </c>
       <c r="L2">
-        <v>6.337277812885795</v>
+        <v>9.808381591485189</v>
       </c>
       <c r="M2">
-        <v>10.64053270332383</v>
+        <v>16.56971442282067</v>
       </c>
       <c r="N2">
-        <v>15.29904482533482</v>
+        <v>23.30224139801533</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.85311464726287</v>
+        <v>17.55005965566573</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.411210505592119</v>
+        <v>7.893639737159547</v>
       </c>
       <c r="E3">
-        <v>8.880303391552252</v>
+        <v>14.35691861751172</v>
       </c>
       <c r="F3">
-        <v>29.07373140220452</v>
+        <v>42.18121235685641</v>
       </c>
       <c r="G3">
-        <v>37.41524552073454</v>
+        <v>49.80588556180674</v>
       </c>
       <c r="H3">
-        <v>12.58276105613448</v>
+        <v>19.59138354901564</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.132925973388733</v>
+        <v>11.32951137998026</v>
       </c>
       <c r="K3">
-        <v>12.2544676117784</v>
+        <v>11.84940176232971</v>
       </c>
       <c r="L3">
-        <v>6.14343333603863</v>
+        <v>9.797634431228012</v>
       </c>
       <c r="M3">
-        <v>10.37382604116563</v>
+        <v>16.56144917284506</v>
       </c>
       <c r="N3">
-        <v>15.51566269472591</v>
+        <v>23.3660527026018</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.51754229505851</v>
+        <v>17.51455533801389</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.397425858222009</v>
+        <v>7.897298070513337</v>
       </c>
       <c r="E4">
-        <v>8.899705540017937</v>
+        <v>14.36704726818232</v>
       </c>
       <c r="F4">
-        <v>28.88025400678397</v>
+        <v>42.21908164985124</v>
       </c>
       <c r="G4">
-        <v>36.98488342160559</v>
+        <v>49.8168129729217</v>
       </c>
       <c r="H4">
-        <v>12.57230487525021</v>
+        <v>19.61876907178497</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.150237249187373</v>
+        <v>11.33580684458846</v>
       </c>
       <c r="K4">
-        <v>11.69804690955884</v>
+        <v>11.74220416808797</v>
       </c>
       <c r="L4">
-        <v>6.024059888667805</v>
+        <v>9.792449571681122</v>
       </c>
       <c r="M4">
-        <v>10.21132779754012</v>
+        <v>16.55878611947233</v>
       </c>
       <c r="N4">
-        <v>15.65195585873504</v>
+        <v>23.40713058633856</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.37975497135155</v>
+        <v>17.50091589196503</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.392027937518041</v>
+        <v>7.898908292424982</v>
       </c>
       <c r="E5">
-        <v>8.90793547461176</v>
+        <v>14.37132933757204</v>
       </c>
       <c r="F5">
-        <v>28.80612744869736</v>
+        <v>42.23656327880951</v>
       </c>
       <c r="G5">
-        <v>36.8158853575788</v>
+        <v>49.82424150727768</v>
       </c>
       <c r="H5">
-        <v>12.56988508998798</v>
+        <v>19.63068692550337</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.157464144052433</v>
+        <v>11.33845727022461</v>
       </c>
       <c r="K5">
-        <v>11.46389151500569</v>
+        <v>11.69893284302558</v>
       </c>
       <c r="L5">
-        <v>5.975391357273497</v>
+        <v>9.790694219838734</v>
       </c>
       <c r="M5">
-        <v>10.14550760235752</v>
+        <v>16.55830981931069</v>
       </c>
       <c r="N5">
-        <v>15.70834229289429</v>
+        <v>23.42434853614921</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35681916336318</v>
+        <v>17.49870144503516</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.391144767009107</v>
+        <v>7.899182890780988</v>
       </c>
       <c r="E6">
-        <v>8.909321456456151</v>
+        <v>14.372049717512</v>
       </c>
       <c r="F6">
-        <v>28.79410146722533</v>
+        <v>42.23958981741687</v>
       </c>
       <c r="G6">
-        <v>36.78820878650679</v>
+        <v>49.82565466640691</v>
       </c>
       <c r="H6">
-        <v>12.56959278563002</v>
+        <v>19.63271164552031</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.158674590616037</v>
+        <v>11.33890250996305</v>
       </c>
       <c r="K6">
-        <v>11.42456188944046</v>
+        <v>11.69177421562802</v>
       </c>
       <c r="L6">
-        <v>5.967310602681533</v>
+        <v>9.790424392425491</v>
       </c>
       <c r="M6">
-        <v>10.13460476283631</v>
+        <v>16.5582675733467</v>
       </c>
       <c r="N6">
-        <v>15.71775684680781</v>
+        <v>23.42723649304489</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.51568796649553</v>
+        <v>17.51436802145205</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.397352176176915</v>
+        <v>7.897319302555178</v>
       </c>
       <c r="E7">
-        <v>8.8998152280559</v>
+        <v>14.3671043913697</v>
       </c>
       <c r="F7">
-        <v>28.87923530965394</v>
+        <v>42.21930911730522</v>
       </c>
       <c r="G7">
-        <v>36.98257841756857</v>
+        <v>49.81690111137104</v>
       </c>
       <c r="H7">
-        <v>12.57226486321184</v>
+        <v>19.61892673152479</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.150334014948839</v>
+        <v>11.33584224481038</v>
       </c>
       <c r="K7">
-        <v>11.69491904558359</v>
+        <v>11.7416188518575</v>
       </c>
       <c r="L7">
-        <v>6.023403530630229</v>
+        <v>9.792424448338229</v>
       </c>
       <c r="M7">
-        <v>10.21043839689707</v>
+        <v>16.55877722741642</v>
       </c>
       <c r="N7">
-        <v>15.65271285645498</v>
+        <v>23.40736085506116</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.20706706185074</v>
+        <v>17.59074776872002</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.426680328484741</v>
+        <v>7.89014324744721</v>
       </c>
       <c r="E8">
-        <v>8.860717637281443</v>
+        <v>14.34663773149538</v>
       </c>
       <c r="F8">
-        <v>29.29651102635374</v>
+        <v>42.14781330852097</v>
       </c>
       <c r="G8">
-        <v>37.89623221052767</v>
+        <v>49.80439880836029</v>
       </c>
       <c r="H8">
-        <v>12.60037613514123</v>
+        <v>19.56475297317347</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.115041380195033</v>
+        <v>11.32308336954419</v>
       </c>
       <c r="K8">
-        <v>12.8229805782624</v>
+        <v>11.96504436429949</v>
       </c>
       <c r="L8">
-        <v>6.270551356968706</v>
+        <v>9.804383743362912</v>
       </c>
       <c r="M8">
-        <v>10.54835900686814</v>
+        <v>16.56636551966382</v>
       </c>
       <c r="N8">
-        <v>15.37306357687842</v>
+        <v>23.32385046282541</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.51580394680118</v>
+        <v>17.76579069331936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.491414100287294</v>
+        <v>7.879814985887719</v>
       </c>
       <c r="E9">
-        <v>8.794624080234872</v>
+        <v>14.31135275013036</v>
       </c>
       <c r="F9">
-        <v>30.26841640313836</v>
+        <v>42.07239608969299</v>
       </c>
       <c r="G9">
-        <v>39.88694311714242</v>
+        <v>49.87376279793516</v>
       </c>
       <c r="H9">
-        <v>12.71802091492401</v>
+        <v>19.48246864640856</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.051243516096463</v>
+        <v>11.30072764281834</v>
       </c>
       <c r="K9">
-        <v>14.80408632396743</v>
+        <v>12.41196591067265</v>
       </c>
       <c r="L9">
-        <v>6.749773535599546</v>
+        <v>9.838961509682084</v>
       </c>
       <c r="M9">
-        <v>11.21758823443101</v>
+        <v>16.60026723638254</v>
       </c>
       <c r="N9">
-        <v>14.8498839041957</v>
+        <v>23.17508493935966</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.4398199292354</v>
+        <v>17.9090240869461</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.543659947022402</v>
+        <v>7.874490705179246</v>
       </c>
       <c r="E10">
-        <v>8.752869441568079</v>
+        <v>14.28836374406082</v>
       </c>
       <c r="F10">
-        <v>31.07918596896018</v>
+        <v>42.05653151164692</v>
       </c>
       <c r="G10">
-        <v>41.46823504827001</v>
+        <v>49.98180701473182</v>
       </c>
       <c r="H10">
-        <v>12.84610326841697</v>
+        <v>19.43663727957968</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.007651714548409</v>
+        <v>11.28591325097134</v>
       </c>
       <c r="K10">
-        <v>16.12166566296292</v>
+        <v>12.74238829804889</v>
       </c>
       <c r="L10">
-        <v>7.095405543317747</v>
+        <v>9.87101343564529</v>
       </c>
       <c r="M10">
-        <v>11.70901199481877</v>
+        <v>16.63660251677673</v>
       </c>
       <c r="N10">
-        <v>14.47959912114956</v>
+        <v>23.07484817284879</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.85061574711228</v>
+        <v>17.97718055674734</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.568517250427136</v>
+        <v>7.872556173493184</v>
       </c>
       <c r="E11">
-        <v>8.735443649406296</v>
+        <v>14.27853812670858</v>
       </c>
       <c r="F11">
-        <v>31.46955665662699</v>
+        <v>42.05789859256733</v>
       </c>
       <c r="G11">
-        <v>42.21277947193573</v>
+        <v>50.04328366980329</v>
       </c>
       <c r="H11">
-        <v>12.91417083596043</v>
+        <v>19.41896606155677</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.988531338861217</v>
+        <v>11.27952052496924</v>
       </c>
       <c r="K11">
-        <v>16.69184675474801</v>
+        <v>12.8924747785135</v>
       </c>
       <c r="L11">
-        <v>7.250697437135225</v>
+        <v>9.887005688504829</v>
       </c>
       <c r="M11">
-        <v>11.93173016161868</v>
+        <v>16.65557274903477</v>
       </c>
       <c r="N11">
-        <v>14.31392092824868</v>
+        <v>23.03119800688608</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.00471033813171</v>
+        <v>18.0034044929098</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.578093556965331</v>
+        <v>7.871893379372495</v>
       </c>
       <c r="E12">
-        <v>8.729079411649819</v>
+        <v>14.27490798136948</v>
       </c>
       <c r="F12">
-        <v>31.62051537830527</v>
+        <v>42.05964913274025</v>
       </c>
       <c r="G12">
-        <v>42.49829683935913</v>
+        <v>50.06832658156887</v>
       </c>
       <c r="H12">
-        <v>12.94141771336321</v>
+        <v>19.41273151809983</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.981393142105851</v>
+        <v>11.27714935868319</v>
       </c>
       <c r="K12">
-        <v>16.90362728628623</v>
+        <v>12.94922143618417</v>
       </c>
       <c r="L12">
-        <v>7.309186661261413</v>
+        <v>9.89326146032322</v>
       </c>
       <c r="M12">
-        <v>12.01589106700204</v>
+        <v>16.66310336492106</v>
       </c>
       <c r="N12">
-        <v>14.2515569313527</v>
+        <v>23.01494767930144</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.97158972894206</v>
+        <v>17.99773853363777</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.576023747553956</v>
+        <v>7.872033026190747</v>
       </c>
       <c r="E13">
-        <v>8.730439478833139</v>
+        <v>14.27568577338224</v>
       </c>
       <c r="F13">
-        <v>31.58786377740164</v>
+        <v>42.05921732251283</v>
       </c>
       <c r="G13">
-        <v>42.43664725442275</v>
+        <v>50.0628549033521</v>
       </c>
       <c r="H13">
-        <v>12.93548319448949</v>
+        <v>19.41405390362461</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.982925926545704</v>
+        <v>11.27765782795645</v>
       </c>
       <c r="K13">
-        <v>16.85819938969119</v>
+        <v>12.93700479982825</v>
       </c>
       <c r="L13">
-        <v>7.296604568311748</v>
+        <v>9.891905331389706</v>
       </c>
       <c r="M13">
-        <v>11.99777425331505</v>
+        <v>16.66146614605831</v>
       </c>
       <c r="N13">
-        <v>14.26497184018086</v>
+        <v>23.01843508468617</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.86332302113473</v>
+        <v>17.97932980513143</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.569301783744927</v>
+        <v>7.872500248620715</v>
       </c>
       <c r="E14">
-        <v>8.734915304142898</v>
+        <v>14.27823765839459</v>
       </c>
       <c r="F14">
-        <v>31.48191311343934</v>
+        <v>42.05801791343821</v>
       </c>
       <c r="G14">
-        <v>42.23619776264567</v>
+        <v>50.04530869285851</v>
       </c>
       <c r="H14">
-        <v>12.91638261414692</v>
+        <v>19.41844397876171</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.987942023542798</v>
+        <v>11.27932445432959</v>
       </c>
       <c r="K14">
-        <v>16.70935255152621</v>
+        <v>12.89714543232188</v>
       </c>
       <c r="L14">
-        <v>7.255515916674421</v>
+        <v>9.887516367914948</v>
       </c>
       <c r="M14">
-        <v>11.93865799523515</v>
+        <v>16.6561853669418</v>
       </c>
       <c r="N14">
-        <v>14.30878282833783</v>
+        <v>23.02985549637453</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79681335262111</v>
+        <v>17.96810740953887</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.565205873994375</v>
+        <v>7.872795512181312</v>
       </c>
       <c r="E15">
-        <v>8.73768770385918</v>
+        <v>14.27981255176877</v>
       </c>
       <c r="F15">
-        <v>31.41742443135518</v>
+        <v>42.05744373820649</v>
       </c>
       <c r="G15">
-        <v>42.11388088660017</v>
+        <v>50.03479041558126</v>
       </c>
       <c r="H15">
-        <v>12.90487638228532</v>
+        <v>19.4211925675844</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.991027856227873</v>
+        <v>11.28035176741983</v>
       </c>
       <c r="K15">
-        <v>16.61764307059963</v>
+        <v>12.87271736191798</v>
       </c>
       <c r="L15">
-        <v>7.230305707621016</v>
+        <v>9.884853931417492</v>
       </c>
       <c r="M15">
-        <v>11.90242285536429</v>
+        <v>16.65299580289294</v>
       </c>
       <c r="N15">
-        <v>14.3356664323485</v>
+        <v>23.03688713601117</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.41277306044703</v>
+        <v>17.90462883590573</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.542057950063839</v>
+        <v>7.874626912995578</v>
       </c>
       <c r="E16">
-        <v>8.754040564873335</v>
+        <v>14.28901856639758</v>
       </c>
       <c r="F16">
-        <v>31.054110949826</v>
+        <v>42.05661478827719</v>
       </c>
       <c r="G16">
-        <v>41.42008000472116</v>
+        <v>49.97803664590174</v>
       </c>
       <c r="H16">
-        <v>12.84185739781515</v>
+        <v>19.43785609891482</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.008915572456112</v>
+        <v>11.28633798479758</v>
       </c>
       <c r="K16">
-        <v>16.08382084447836</v>
+        <v>12.73257048765229</v>
       </c>
       <c r="L16">
-        <v>7.08521448348914</v>
+        <v>9.869996446113895</v>
       </c>
       <c r="M16">
-        <v>11.69443496652289</v>
+        <v>16.63541155067314</v>
       </c>
       <c r="N16">
-        <v>14.49048028763184</v>
+        <v>23.0777399205212</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.17466036839713</v>
+        <v>17.86644321684165</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.528141162310246</v>
+        <v>7.875875045731124</v>
       </c>
       <c r="E17">
-        <v>8.76448032351534</v>
+        <v>14.2948278596931</v>
       </c>
       <c r="F17">
-        <v>30.83677414684959</v>
+        <v>42.05830396473333</v>
       </c>
       <c r="G17">
-        <v>41.00087271413614</v>
+        <v>49.94637106043407</v>
       </c>
       <c r="H17">
-        <v>12.80575161874862</v>
+        <v>19.44889270008486</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.020070990746485</v>
+        <v>11.29009892196479</v>
       </c>
       <c r="K17">
-        <v>15.74890465384535</v>
+        <v>12.64649736129978</v>
       </c>
       <c r="L17">
-        <v>6.995680492320297</v>
+        <v>9.861241243548537</v>
       </c>
       <c r="M17">
-        <v>11.56658434417649</v>
+        <v>16.62524662889775</v>
       </c>
       <c r="N17">
-        <v>14.58614585778755</v>
+        <v>23.10329994574393</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.03681019799557</v>
+        <v>17.84476316881319</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.520238788941316</v>
+        <v>7.87663884557089</v>
       </c>
       <c r="E18">
-        <v>8.770632043635919</v>
+        <v>14.2982287350179</v>
       </c>
       <c r="F18">
-        <v>30.71379395474178</v>
+        <v>42.06008363170951</v>
       </c>
       <c r="G18">
-        <v>40.76213087276035</v>
+        <v>49.92931880380318</v>
       </c>
       <c r="H18">
-        <v>12.78590346937779</v>
+        <v>19.45553975383469</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.026554075386371</v>
+        <v>11.29229473124697</v>
       </c>
       <c r="K18">
-        <v>15.55351790123987</v>
+        <v>12.59697248185969</v>
       </c>
       <c r="L18">
-        <v>6.944002369449763</v>
+        <v>9.856338555452158</v>
       </c>
       <c r="M18">
-        <v>11.49297266226173</v>
+        <v>16.61963006344693</v>
       </c>
       <c r="N18">
-        <v>14.64143194784308</v>
+        <v>23.11818481893176</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.98998608434183</v>
+        <v>17.83747183322062</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.517580545545001</v>
+        <v>7.876905349687545</v>
       </c>
       <c r="E19">
-        <v>8.772739909679611</v>
+        <v>14.29939044557057</v>
       </c>
       <c r="F19">
-        <v>30.67250188600925</v>
+        <v>42.06082502221772</v>
       </c>
       <c r="G19">
-        <v>40.68170661708932</v>
+        <v>49.9237448562352</v>
       </c>
       <c r="H19">
-        <v>12.77933918412615</v>
+        <v>19.45784169360051</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.028760602751586</v>
+        <v>11.29304380259739</v>
       </c>
       <c r="K19">
-        <v>15.4868888359312</v>
+        <v>12.58020285802796</v>
       </c>
       <c r="L19">
-        <v>6.926475292470305</v>
+        <v>9.854701537729051</v>
       </c>
       <c r="M19">
-        <v>11.46803794513838</v>
+        <v>16.61776801708181</v>
       </c>
       <c r="N19">
-        <v>14.66019652224811</v>
+        <v>23.1232561175212</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.20010113333756</v>
+        <v>17.87047893837741</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.529612006226117</v>
+        <v>7.875737431087182</v>
       </c>
       <c r="E20">
-        <v>8.76335371298657</v>
+        <v>14.29420329229132</v>
       </c>
       <c r="F20">
-        <v>30.85970006043964</v>
+        <v>42.05804052259175</v>
       </c>
       <c r="G20">
-        <v>41.0452526308299</v>
+        <v>49.94962182496195</v>
       </c>
       <c r="H20">
-        <v>12.80949958870243</v>
+        <v>19.44768687823852</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.018876564630102</v>
+        <v>11.28969518938657</v>
       </c>
       <c r="K20">
-        <v>15.7848414154946</v>
+        <v>12.65566225280018</v>
       </c>
       <c r="L20">
-        <v>7.005230517547867</v>
+        <v>9.862159499465633</v>
       </c>
       <c r="M20">
-        <v>11.58020250547261</v>
+        <v>16.62630492343142</v>
       </c>
       <c r="N20">
-        <v>14.57593516591536</v>
+        <v>23.10056006173285</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.89516397511268</v>
+        <v>17.98472577993279</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.571271696592538</v>
+        <v>7.872361123167816</v>
       </c>
       <c r="E21">
-        <v>8.733594203778848</v>
+        <v>14.27748565140006</v>
       </c>
       <c r="F21">
-        <v>31.51294806019832</v>
+        <v>42.058336765115</v>
       </c>
       <c r="G21">
-        <v>42.29497796496587</v>
+        <v>50.05041467750219</v>
       </c>
       <c r="H21">
-        <v>12.92195249740313</v>
+        <v>19.41714209871517</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.98646589599852</v>
+        <v>11.27883358061709</v>
       </c>
       <c r="K21">
-        <v>16.75318416100074</v>
+        <v>12.9088559123592</v>
       </c>
       <c r="L21">
-        <v>7.26759350751327</v>
+        <v>9.888800114874229</v>
       </c>
       <c r="M21">
-        <v>11.95602711876536</v>
+        <v>16.65772707569537</v>
       </c>
       <c r="N21">
-        <v>14.29590449522941</v>
+        <v>23.0264934800428</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.34085985460732</v>
+        <v>18.0618008991227</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.599454729335342</v>
+        <v>7.870561033239795</v>
       </c>
       <c r="E22">
-        <v>8.715516638860395</v>
+        <v>14.26708766912533</v>
       </c>
       <c r="F22">
-        <v>31.95816654923903</v>
+        <v>42.06571520509104</v>
       </c>
       <c r="G22">
-        <v>43.13256742124318</v>
+        <v>50.12655917646369</v>
       </c>
       <c r="H22">
-        <v>13.00405102712581</v>
+        <v>19.39984405540093</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.965880014275664</v>
+        <v>11.27202402809553</v>
       </c>
       <c r="K22">
-        <v>17.36198507608247</v>
+        <v>13.07379621002819</v>
       </c>
       <c r="L22">
-        <v>7.437205375552698</v>
+        <v>9.907374608208794</v>
       </c>
       <c r="M22">
-        <v>12.20059329474053</v>
+        <v>16.68028380119775</v>
       </c>
       <c r="N22">
-        <v>14.11506145040487</v>
+        <v>22.97971267045635</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.10379314760578</v>
+        <v>18.0204497769628</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.584323038316649</v>
+        <v>7.871484688923594</v>
       </c>
       <c r="E23">
-        <v>8.725036185693369</v>
+        <v>14.27258905957928</v>
       </c>
       <c r="F23">
-        <v>31.71886038801559</v>
+        <v>42.06112046206643</v>
       </c>
       <c r="G23">
-        <v>42.68363816064761</v>
+        <v>50.08498331887849</v>
       </c>
       <c r="H23">
-        <v>12.95942574046849</v>
+        <v>19.40883247477021</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.976812402287361</v>
+        <v>11.27563202188374</v>
       </c>
       <c r="K23">
-        <v>17.03923649769389</v>
+        <v>12.98583142174137</v>
       </c>
       <c r="L23">
-        <v>7.346861128704273</v>
+        <v>9.897355693126306</v>
       </c>
       <c r="M23">
-        <v>12.07017763041041</v>
+        <v>16.66806137220855</v>
       </c>
       <c r="N23">
-        <v>14.21138969593056</v>
+        <v>23.00453204560383</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.18860233403564</v>
+        <v>17.86865353587339</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.528946731144615</v>
+        <v>7.875799502657562</v>
       </c>
       <c r="E24">
-        <v>8.763862587789866</v>
+        <v>14.29448546909158</v>
       </c>
       <c r="F24">
-        <v>30.84932912259352</v>
+        <v>42.05815710608486</v>
       </c>
       <c r="G24">
-        <v>41.02518140836045</v>
+        <v>49.94814856293124</v>
       </c>
       <c r="H24">
-        <v>12.8078023031181</v>
+        <v>19.44823108967408</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.019416347634336</v>
+        <v>11.28987761222578</v>
       </c>
       <c r="K24">
-        <v>15.76860325303798</v>
+        <v>12.6515189265832</v>
       </c>
       <c r="L24">
-        <v>7.000913583112579</v>
+        <v>9.861743948312112</v>
       </c>
       <c r="M24">
-        <v>11.57404606871233</v>
+        <v>16.62582575988454</v>
       </c>
       <c r="N24">
-        <v>14.58055052503143</v>
+        <v>23.10179817110985</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.16779122185898</v>
+        <v>17.71580879578787</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.47310115826358</v>
+        <v>7.882210139573881</v>
       </c>
       <c r="E25">
-        <v>8.811337573718802</v>
+        <v>14.32038131299481</v>
       </c>
       <c r="F25">
-        <v>29.988699055013</v>
+        <v>42.08585500322188</v>
       </c>
       <c r="G25">
-        <v>39.32734066257535</v>
+        <v>49.84495542170176</v>
       </c>
       <c r="H25">
-        <v>12.67913593288933</v>
+        <v>19.50216211210891</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.067925499187711</v>
+        <v>11.30649166483554</v>
       </c>
       <c r="K25">
-        <v>14.29259838287197</v>
+        <v>12.29046327347665</v>
       </c>
       <c r="L25">
-        <v>6.621059139642901</v>
+        <v>9.828429403931228</v>
       </c>
       <c r="M25">
-        <v>11.03630100341799</v>
+        <v>16.5890758859755</v>
       </c>
       <c r="N25">
-        <v>14.98884814000103</v>
+        <v>23.21373283052421</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.61317913292495</v>
+        <v>13.39159186974528</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.888452948504171</v>
+        <v>4.435105865904227</v>
       </c>
       <c r="E2">
-        <v>14.3414213402736</v>
+        <v>8.850828133439531</v>
       </c>
       <c r="F2">
-        <v>42.13282251075115</v>
+        <v>29.41983660185925</v>
       </c>
       <c r="G2">
-        <v>49.80736577915413</v>
+        <v>38.15733489473016</v>
       </c>
       <c r="H2">
-        <v>19.55169442134907</v>
+        <v>12.61209192312704</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.31980718705681</v>
+        <v>7.105845904406731</v>
       </c>
       <c r="K2">
-        <v>12.02629931463118</v>
+        <v>13.11289967729549</v>
       </c>
       <c r="L2">
-        <v>9.808381591485189</v>
+        <v>6.337277812885785</v>
       </c>
       <c r="M2">
-        <v>16.56971442282067</v>
+        <v>10.6405327033238</v>
       </c>
       <c r="N2">
-        <v>23.30224139801533</v>
+        <v>15.29904482533479</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.55005965566573</v>
+        <v>12.85311464726287</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.893639737159547</v>
+        <v>4.411210505592119</v>
       </c>
       <c r="E3">
-        <v>14.35691861751172</v>
+        <v>8.880303391552385</v>
       </c>
       <c r="F3">
-        <v>42.18121235685641</v>
+        <v>29.07373140220462</v>
       </c>
       <c r="G3">
-        <v>49.80588556180674</v>
+        <v>37.41524552073462</v>
       </c>
       <c r="H3">
-        <v>19.59138354901564</v>
+        <v>12.58276105613448</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.32951137998026</v>
+        <v>7.132925973388835</v>
       </c>
       <c r="K3">
-        <v>11.84940176232971</v>
+        <v>12.25446761177839</v>
       </c>
       <c r="L3">
-        <v>9.797634431228012</v>
+        <v>6.143433336038684</v>
       </c>
       <c r="M3">
-        <v>16.56144917284506</v>
+        <v>10.37382604116567</v>
       </c>
       <c r="N3">
-        <v>23.3660527026018</v>
+        <v>15.51566269472598</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.51455533801389</v>
+        <v>12.51754229505846</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.897298070513337</v>
+        <v>4.397425858222014</v>
       </c>
       <c r="E4">
-        <v>14.36704726818232</v>
+        <v>8.899705540017873</v>
       </c>
       <c r="F4">
-        <v>42.21908164985124</v>
+        <v>28.88025400678384</v>
       </c>
       <c r="G4">
-        <v>49.8168129729217</v>
+        <v>36.98488342160534</v>
       </c>
       <c r="H4">
-        <v>19.61876907178497</v>
+        <v>12.5723048752501</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.33580684458846</v>
+        <v>7.150237249187306</v>
       </c>
       <c r="K4">
-        <v>11.74220416808797</v>
+        <v>11.69804690955888</v>
       </c>
       <c r="L4">
-        <v>9.792449571681122</v>
+        <v>6.024059888667814</v>
       </c>
       <c r="M4">
-        <v>16.55878611947233</v>
+        <v>10.21132779754009</v>
       </c>
       <c r="N4">
-        <v>23.40713058633856</v>
+        <v>15.65195585873498</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.50091589196503</v>
+        <v>12.3797549713515</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.898908292424982</v>
+        <v>4.392027937517917</v>
       </c>
       <c r="E5">
-        <v>14.37132933757204</v>
+        <v>8.907935474611625</v>
       </c>
       <c r="F5">
-        <v>42.23656327880951</v>
+        <v>28.80612744869725</v>
       </c>
       <c r="G5">
-        <v>49.82424150727768</v>
+        <v>36.81588535757876</v>
       </c>
       <c r="H5">
-        <v>19.63068692550337</v>
+        <v>12.56988508998792</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.33845727022461</v>
+        <v>7.157464144052334</v>
       </c>
       <c r="K5">
-        <v>11.69893284302558</v>
+        <v>11.46389151500568</v>
       </c>
       <c r="L5">
-        <v>9.790694219838734</v>
+        <v>5.975391357273411</v>
       </c>
       <c r="M5">
-        <v>16.55830981931069</v>
+        <v>10.14550760235749</v>
       </c>
       <c r="N5">
-        <v>23.42434853614921</v>
+        <v>15.70834229289426</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.49870144503516</v>
+        <v>12.35681916336311</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.899182890780988</v>
+        <v>4.391144767009095</v>
       </c>
       <c r="E6">
-        <v>14.372049717512</v>
+        <v>8.909321456456086</v>
       </c>
       <c r="F6">
-        <v>42.23958981741687</v>
+        <v>28.79410146722516</v>
       </c>
       <c r="G6">
-        <v>49.82565466640691</v>
+        <v>36.78820878650659</v>
       </c>
       <c r="H6">
-        <v>19.63271164552031</v>
+        <v>12.56959278562995</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.33890250996305</v>
+        <v>7.158674590616003</v>
       </c>
       <c r="K6">
-        <v>11.69177421562802</v>
+        <v>11.42456188944049</v>
       </c>
       <c r="L6">
-        <v>9.790424392425491</v>
+        <v>5.967310602681483</v>
       </c>
       <c r="M6">
-        <v>16.5582675733467</v>
+        <v>10.13460476283627</v>
       </c>
       <c r="N6">
-        <v>23.42723649304489</v>
+        <v>15.71775684680775</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.51436802145205</v>
+        <v>12.51568796649554</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.897319302555178</v>
+        <v>4.397352176176906</v>
       </c>
       <c r="E7">
-        <v>14.3671043913697</v>
+        <v>8.899815228055967</v>
       </c>
       <c r="F7">
-        <v>42.21930911730522</v>
+        <v>28.87923530965389</v>
       </c>
       <c r="G7">
-        <v>49.81690111137104</v>
+        <v>36.98257841756847</v>
       </c>
       <c r="H7">
-        <v>19.61892673152479</v>
+        <v>12.57226486321184</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.33584224481038</v>
+        <v>7.150334014948907</v>
       </c>
       <c r="K7">
-        <v>11.7416188518575</v>
+        <v>11.69491904558361</v>
       </c>
       <c r="L7">
-        <v>9.792424448338229</v>
+        <v>6.023403530630193</v>
       </c>
       <c r="M7">
-        <v>16.55877722741642</v>
+        <v>10.21043839689707</v>
       </c>
       <c r="N7">
-        <v>23.40736085506116</v>
+        <v>15.65271285645498</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.59074776872002</v>
+        <v>13.20706706185072</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.89014324744721</v>
+        <v>4.426680328484618</v>
       </c>
       <c r="E8">
-        <v>14.34663773149538</v>
+        <v>8.860717637281443</v>
       </c>
       <c r="F8">
-        <v>42.14781330852097</v>
+        <v>29.2965110263536</v>
       </c>
       <c r="G8">
-        <v>49.80439880836029</v>
+        <v>37.89623221052752</v>
       </c>
       <c r="H8">
-        <v>19.56475297317347</v>
+        <v>12.60037613514111</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.32308336954419</v>
+        <v>7.115041380195068</v>
       </c>
       <c r="K8">
-        <v>11.96504436429949</v>
+        <v>12.82298057826241</v>
       </c>
       <c r="L8">
-        <v>9.804383743362912</v>
+        <v>6.270551356968726</v>
       </c>
       <c r="M8">
-        <v>16.56636551966382</v>
+        <v>10.54835900686812</v>
       </c>
       <c r="N8">
-        <v>23.32385046282541</v>
+        <v>15.37306357687839</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.76579069331936</v>
+        <v>14.51580394680115</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.879814985887719</v>
+        <v>4.49141410028741</v>
       </c>
       <c r="E9">
-        <v>14.31135275013036</v>
+        <v>8.794624080235003</v>
       </c>
       <c r="F9">
-        <v>42.07239608969299</v>
+        <v>30.26841640313838</v>
       </c>
       <c r="G9">
-        <v>49.87376279793516</v>
+        <v>39.88694311714239</v>
       </c>
       <c r="H9">
-        <v>19.48246864640856</v>
+        <v>12.71802091492401</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.30072764281834</v>
+        <v>7.051243516096531</v>
       </c>
       <c r="K9">
-        <v>12.41196591067265</v>
+        <v>14.80408632396749</v>
       </c>
       <c r="L9">
-        <v>9.838961509682084</v>
+        <v>6.749773535599579</v>
       </c>
       <c r="M9">
-        <v>16.60026723638254</v>
+        <v>11.217588234431</v>
       </c>
       <c r="N9">
-        <v>23.17508493935966</v>
+        <v>14.84988390419576</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.9090240869461</v>
+        <v>15.43981992923541</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.874490705179246</v>
+        <v>4.543659947022292</v>
       </c>
       <c r="E10">
-        <v>14.28836374406082</v>
+        <v>8.752869441568015</v>
       </c>
       <c r="F10">
-        <v>42.05653151164692</v>
+        <v>31.07918596896005</v>
       </c>
       <c r="G10">
-        <v>49.98180701473182</v>
+        <v>41.4682350482699</v>
       </c>
       <c r="H10">
-        <v>19.43663727957968</v>
+        <v>12.84610326841692</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.28591325097134</v>
+        <v>7.007651714548374</v>
       </c>
       <c r="K10">
-        <v>12.74238829804889</v>
+        <v>16.12166566296293</v>
       </c>
       <c r="L10">
-        <v>9.87101343564529</v>
+        <v>7.095405543317704</v>
       </c>
       <c r="M10">
-        <v>16.63660251677673</v>
+        <v>11.70901199481875</v>
       </c>
       <c r="N10">
-        <v>23.07484817284879</v>
+        <v>14.47959912114949</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.97718055674734</v>
+        <v>15.85061574711228</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.872556173493184</v>
+        <v>4.568517250427255</v>
       </c>
       <c r="E11">
-        <v>14.27853812670858</v>
+        <v>8.735443649406358</v>
       </c>
       <c r="F11">
-        <v>42.05789859256733</v>
+        <v>31.469556656627</v>
       </c>
       <c r="G11">
-        <v>50.04328366980329</v>
+        <v>42.21277947193573</v>
       </c>
       <c r="H11">
-        <v>19.41896606155677</v>
+        <v>12.91417083596038</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.27952052496924</v>
+        <v>6.988531338861184</v>
       </c>
       <c r="K11">
-        <v>12.8924747785135</v>
+        <v>16.69184675474802</v>
       </c>
       <c r="L11">
-        <v>9.887005688504829</v>
+        <v>7.250697437135243</v>
       </c>
       <c r="M11">
-        <v>16.65557274903477</v>
+        <v>11.93173016161869</v>
       </c>
       <c r="N11">
-        <v>23.03119800688608</v>
+        <v>14.31392092824867</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.0034044929098</v>
+        <v>16.0047103381317</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.871893379372495</v>
+        <v>4.578093556965214</v>
       </c>
       <c r="E12">
-        <v>14.27490798136948</v>
+        <v>8.729079411649753</v>
       </c>
       <c r="F12">
-        <v>42.05964913274025</v>
+        <v>31.6205153783053</v>
       </c>
       <c r="G12">
-        <v>50.06832658156887</v>
+        <v>42.49829683935925</v>
       </c>
       <c r="H12">
-        <v>19.41273151809983</v>
+        <v>12.94141771336322</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.27714935868319</v>
+        <v>6.981393142105851</v>
       </c>
       <c r="K12">
-        <v>12.94922143618417</v>
+        <v>16.90362728628624</v>
       </c>
       <c r="L12">
-        <v>9.89326146032322</v>
+        <v>7.30918666126141</v>
       </c>
       <c r="M12">
-        <v>16.66310336492106</v>
+        <v>12.01589106700202</v>
       </c>
       <c r="N12">
-        <v>23.01494767930144</v>
+        <v>14.25155693135281</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.99773853363777</v>
+        <v>15.97158972894206</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.872033026190747</v>
+        <v>4.576023747553888</v>
       </c>
       <c r="E13">
-        <v>14.27568577338224</v>
+        <v>8.730439478833206</v>
       </c>
       <c r="F13">
-        <v>42.05921732251283</v>
+        <v>31.58786377740159</v>
       </c>
       <c r="G13">
-        <v>50.0628549033521</v>
+        <v>42.43664725442272</v>
       </c>
       <c r="H13">
-        <v>19.41405390362461</v>
+        <v>12.93548319448949</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.27765782795645</v>
+        <v>6.98292592654584</v>
       </c>
       <c r="K13">
-        <v>12.93700479982825</v>
+        <v>16.85819938969119</v>
       </c>
       <c r="L13">
-        <v>9.891905331389706</v>
+        <v>7.296604568311764</v>
       </c>
       <c r="M13">
-        <v>16.66146614605831</v>
+        <v>11.99777425331507</v>
       </c>
       <c r="N13">
-        <v>23.01843508468617</v>
+        <v>14.26497184018086</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.97932980513143</v>
+        <v>15.86332302113474</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.872500248620715</v>
+        <v>4.569301783744799</v>
       </c>
       <c r="E14">
-        <v>14.27823765839459</v>
+        <v>8.734915304142902</v>
       </c>
       <c r="F14">
-        <v>42.05801791343821</v>
+        <v>31.4819131134394</v>
       </c>
       <c r="G14">
-        <v>50.04530869285851</v>
+        <v>42.23619776264577</v>
       </c>
       <c r="H14">
-        <v>19.41844397876171</v>
+        <v>12.91638261414693</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.27932445432959</v>
+        <v>6.987942023542765</v>
       </c>
       <c r="K14">
-        <v>12.89714543232188</v>
+        <v>16.70935255152615</v>
       </c>
       <c r="L14">
-        <v>9.887516367914948</v>
+        <v>7.25551591667444</v>
       </c>
       <c r="M14">
-        <v>16.6561853669418</v>
+        <v>11.93865799523515</v>
       </c>
       <c r="N14">
-        <v>23.02985549637453</v>
+        <v>14.30878282833783</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.96810740953887</v>
+        <v>15.79681335262113</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.872795512181312</v>
+        <v>4.565205873994308</v>
       </c>
       <c r="E15">
-        <v>14.27981255176877</v>
+        <v>8.73768770385918</v>
       </c>
       <c r="F15">
-        <v>42.05744373820649</v>
+        <v>31.41742443135511</v>
       </c>
       <c r="G15">
-        <v>50.03479041558126</v>
+        <v>42.11388088660019</v>
       </c>
       <c r="H15">
-        <v>19.4211925675844</v>
+        <v>12.90487638228528</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.28035176741983</v>
+        <v>6.991027856227908</v>
       </c>
       <c r="K15">
-        <v>12.87271736191798</v>
+        <v>16.61764307059962</v>
       </c>
       <c r="L15">
-        <v>9.884853931417492</v>
+        <v>7.230305707621031</v>
       </c>
       <c r="M15">
-        <v>16.65299580289294</v>
+        <v>11.90242285536431</v>
       </c>
       <c r="N15">
-        <v>23.03688713601117</v>
+        <v>14.33566643234846</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.90462883590573</v>
+        <v>15.41277306044701</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.874626912995578</v>
+        <v>4.542057950063724</v>
       </c>
       <c r="E16">
-        <v>14.28901856639758</v>
+        <v>8.754040564873202</v>
       </c>
       <c r="F16">
-        <v>42.05661478827719</v>
+        <v>31.05411094982589</v>
       </c>
       <c r="G16">
-        <v>49.97803664590174</v>
+        <v>41.42008000472109</v>
       </c>
       <c r="H16">
-        <v>19.43785609891482</v>
+        <v>12.84185739781515</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.28633798479758</v>
+        <v>7.00891557245608</v>
       </c>
       <c r="K16">
-        <v>12.73257048765229</v>
+        <v>16.0838208444784</v>
       </c>
       <c r="L16">
-        <v>9.869996446113895</v>
+        <v>7.085214483489061</v>
       </c>
       <c r="M16">
-        <v>16.63541155067314</v>
+        <v>11.6944349665228</v>
       </c>
       <c r="N16">
-        <v>23.0777399205212</v>
+        <v>14.49048028763185</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.86644321684165</v>
+        <v>15.17466036839715</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.875875045731124</v>
+        <v>4.528141162310371</v>
       </c>
       <c r="E17">
-        <v>14.2948278596931</v>
+        <v>8.764480323515409</v>
       </c>
       <c r="F17">
-        <v>42.05830396473333</v>
+        <v>30.83677414684971</v>
       </c>
       <c r="G17">
-        <v>49.94637106043407</v>
+        <v>41.00087271413624</v>
       </c>
       <c r="H17">
-        <v>19.44889270008486</v>
+        <v>12.8057516187487</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.29009892196479</v>
+        <v>7.020070990746518</v>
       </c>
       <c r="K17">
-        <v>12.64649736129978</v>
+        <v>15.7489046538453</v>
       </c>
       <c r="L17">
-        <v>9.861241243548537</v>
+        <v>6.995680492320351</v>
       </c>
       <c r="M17">
-        <v>16.62524662889775</v>
+        <v>11.56658434417653</v>
       </c>
       <c r="N17">
-        <v>23.10329994574393</v>
+        <v>14.58614585778758</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.84476316881319</v>
+        <v>15.03681019799557</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.87663884557089</v>
+        <v>4.520238788941151</v>
       </c>
       <c r="E18">
-        <v>14.2982287350179</v>
+        <v>8.770632043635853</v>
       </c>
       <c r="F18">
-        <v>42.06008363170951</v>
+        <v>30.71379395474158</v>
       </c>
       <c r="G18">
-        <v>49.92931880380318</v>
+        <v>40.76213087276015</v>
       </c>
       <c r="H18">
-        <v>19.45553975383469</v>
+        <v>12.7859034693778</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.29229473124697</v>
+        <v>7.026554075386439</v>
       </c>
       <c r="K18">
-        <v>12.59697248185969</v>
+        <v>15.55351790123991</v>
       </c>
       <c r="L18">
-        <v>9.856338555452158</v>
+        <v>6.944002369449737</v>
       </c>
       <c r="M18">
-        <v>16.61963006344693</v>
+        <v>11.49297266226168</v>
       </c>
       <c r="N18">
-        <v>23.11818481893176</v>
+        <v>14.64143194784303</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.83747183322062</v>
+        <v>14.98998608434184</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.876905349687545</v>
+        <v>4.517580545545001</v>
       </c>
       <c r="E19">
-        <v>14.29939044557057</v>
+        <v>8.772739909679615</v>
       </c>
       <c r="F19">
-        <v>42.06082502221772</v>
+        <v>30.67250188600935</v>
       </c>
       <c r="G19">
-        <v>49.9237448562352</v>
+        <v>40.68170661708946</v>
       </c>
       <c r="H19">
-        <v>19.45784169360051</v>
+        <v>12.77933918412617</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.29304380259739</v>
+        <v>7.028760602751517</v>
       </c>
       <c r="K19">
-        <v>12.58020285802796</v>
+        <v>15.48688883593115</v>
       </c>
       <c r="L19">
-        <v>9.854701537729051</v>
+        <v>6.926475292470354</v>
       </c>
       <c r="M19">
-        <v>16.61776801708181</v>
+        <v>11.46803794513842</v>
       </c>
       <c r="N19">
-        <v>23.1232561175212</v>
+        <v>14.66019652224811</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.87047893837741</v>
+        <v>15.20010113333753</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.875737431087182</v>
+        <v>4.529612006226164</v>
       </c>
       <c r="E20">
-        <v>14.29420329229132</v>
+        <v>8.763353712986437</v>
       </c>
       <c r="F20">
-        <v>42.05804052259175</v>
+        <v>30.85970006043961</v>
       </c>
       <c r="G20">
-        <v>49.94962182496195</v>
+        <v>41.04525263082988</v>
       </c>
       <c r="H20">
-        <v>19.44768687823852</v>
+        <v>12.80949958870243</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.28969518938657</v>
+        <v>7.018876564630001</v>
       </c>
       <c r="K20">
-        <v>12.65566225280018</v>
+        <v>15.78484141549462</v>
       </c>
       <c r="L20">
-        <v>9.862159499465633</v>
+        <v>7.005230517547839</v>
       </c>
       <c r="M20">
-        <v>16.62630492343142</v>
+        <v>11.58020250547258</v>
       </c>
       <c r="N20">
-        <v>23.10056006173285</v>
+        <v>14.5759351659153</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.98472577993279</v>
+        <v>15.89516397511268</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.872361123167816</v>
+        <v>4.571271696592531</v>
       </c>
       <c r="E21">
-        <v>14.27748565140006</v>
+        <v>8.733594203778846</v>
       </c>
       <c r="F21">
-        <v>42.058336765115</v>
+        <v>31.51294806019826</v>
       </c>
       <c r="G21">
-        <v>50.05041467750219</v>
+        <v>42.29497796496587</v>
       </c>
       <c r="H21">
-        <v>19.41714209871517</v>
+        <v>12.9219524974031</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.27883358061709</v>
+        <v>6.986465895998522</v>
       </c>
       <c r="K21">
-        <v>12.9088559123592</v>
+        <v>16.75318416100073</v>
       </c>
       <c r="L21">
-        <v>9.888800114874229</v>
+        <v>7.267593507513256</v>
       </c>
       <c r="M21">
-        <v>16.65772707569537</v>
+        <v>11.95602711876536</v>
       </c>
       <c r="N21">
-        <v>23.0264934800428</v>
+        <v>14.29590449522937</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.0618008991227</v>
+        <v>16.34085985460733</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.870561033239795</v>
+        <v>4.599454729335585</v>
       </c>
       <c r="E22">
-        <v>14.26708766912533</v>
+        <v>8.715516638860526</v>
       </c>
       <c r="F22">
-        <v>42.06571520509104</v>
+        <v>31.95816654923915</v>
       </c>
       <c r="G22">
-        <v>50.12655917646369</v>
+        <v>43.13256742124327</v>
       </c>
       <c r="H22">
-        <v>19.39984405540093</v>
+        <v>13.00405102712587</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.27202402809553</v>
+        <v>6.965880014275632</v>
       </c>
       <c r="K22">
-        <v>13.07379621002819</v>
+        <v>17.36198507608248</v>
       </c>
       <c r="L22">
-        <v>9.907374608208794</v>
+        <v>7.437205375552737</v>
       </c>
       <c r="M22">
-        <v>16.68028380119775</v>
+        <v>12.20059329474056</v>
       </c>
       <c r="N22">
-        <v>22.97971267045635</v>
+        <v>14.11506145040487</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.0204497769628</v>
+        <v>16.10379314760574</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.871484688923594</v>
+        <v>4.584323038316584</v>
       </c>
       <c r="E23">
-        <v>14.27258905957928</v>
+        <v>8.7250361856933</v>
       </c>
       <c r="F23">
-        <v>42.06112046206643</v>
+        <v>31.71886038801554</v>
       </c>
       <c r="G23">
-        <v>50.08498331887849</v>
+        <v>42.68363816064758</v>
       </c>
       <c r="H23">
-        <v>19.40883247477021</v>
+        <v>12.95942574046851</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.27563202188374</v>
+        <v>6.976812402287363</v>
       </c>
       <c r="K23">
-        <v>12.98583142174137</v>
+        <v>17.03923649769392</v>
       </c>
       <c r="L23">
-        <v>9.897355693126306</v>
+        <v>7.346861128704273</v>
       </c>
       <c r="M23">
-        <v>16.66806137220855</v>
+        <v>12.07017763041037</v>
       </c>
       <c r="N23">
-        <v>23.00453204560383</v>
+        <v>14.21138969593056</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.86865353587339</v>
+        <v>15.18860233403564</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.875799502657562</v>
+        <v>4.528946731144496</v>
       </c>
       <c r="E24">
-        <v>14.29448546909158</v>
+        <v>8.763862587789934</v>
       </c>
       <c r="F24">
-        <v>42.05815710608486</v>
+        <v>30.8493291225934</v>
       </c>
       <c r="G24">
-        <v>49.94814856293124</v>
+        <v>41.02518140836042</v>
       </c>
       <c r="H24">
-        <v>19.44823108967408</v>
+        <v>12.80780230311805</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.28987761222578</v>
+        <v>7.019416347634437</v>
       </c>
       <c r="K24">
-        <v>12.6515189265832</v>
+        <v>15.76860325303799</v>
       </c>
       <c r="L24">
-        <v>9.861743948312112</v>
+        <v>7.000913583112585</v>
       </c>
       <c r="M24">
-        <v>16.62582575988454</v>
+        <v>11.57404606871233</v>
       </c>
       <c r="N24">
-        <v>23.10179817110985</v>
+        <v>14.58055052503143</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.71580879578787</v>
+        <v>14.16779122185896</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.882210139573881</v>
+        <v>4.473101158263637</v>
       </c>
       <c r="E25">
-        <v>14.32038131299481</v>
+        <v>8.811337573718669</v>
       </c>
       <c r="F25">
-        <v>42.08585500322188</v>
+        <v>29.98869905501277</v>
       </c>
       <c r="G25">
-        <v>49.84495542170176</v>
+        <v>39.32734066257503</v>
       </c>
       <c r="H25">
-        <v>19.50216211210891</v>
+        <v>12.67913593288923</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.30649166483554</v>
+        <v>7.067925499187609</v>
       </c>
       <c r="K25">
-        <v>12.29046327347665</v>
+        <v>14.29259838287199</v>
       </c>
       <c r="L25">
-        <v>9.828429403931228</v>
+        <v>6.621059139642833</v>
       </c>
       <c r="M25">
-        <v>16.5890758859755</v>
+        <v>11.03630100341793</v>
       </c>
       <c r="N25">
-        <v>23.21373283052421</v>
+        <v>14.98884814000087</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.39159186974528</v>
+        <v>11.69699677903187</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.435105865904227</v>
+        <v>4.386924137496059</v>
       </c>
       <c r="E2">
-        <v>8.850828133439531</v>
+        <v>10.26471476160471</v>
       </c>
       <c r="F2">
-        <v>29.41983660185925</v>
+        <v>24.16394830306731</v>
       </c>
       <c r="G2">
-        <v>38.15733489473016</v>
+        <v>33.55033626344927</v>
       </c>
       <c r="H2">
-        <v>12.61209192312704</v>
+        <v>2.818590813144651</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.23698984794868</v>
       </c>
       <c r="J2">
-        <v>7.105845904406731</v>
+        <v>11.02181476906376</v>
       </c>
       <c r="K2">
-        <v>13.11289967729549</v>
+        <v>19.1858530711283</v>
       </c>
       <c r="L2">
-        <v>6.337277812885785</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.6405327033238</v>
+        <v>15.15093901184662</v>
       </c>
       <c r="N2">
-        <v>15.29904482533479</v>
+        <v>7.445480060328907</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.85311464726287</v>
+        <v>11.01380765757525</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.411210505592119</v>
+        <v>4.339362425101037</v>
       </c>
       <c r="E3">
-        <v>8.880303391552385</v>
+        <v>9.978417551554715</v>
       </c>
       <c r="F3">
-        <v>29.07373140220462</v>
+        <v>23.37730640533906</v>
       </c>
       <c r="G3">
-        <v>37.41524552073462</v>
+        <v>32.32929575757343</v>
       </c>
       <c r="H3">
-        <v>12.58276105613448</v>
+        <v>3.024871280534499</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.384425772814379</v>
       </c>
       <c r="J3">
-        <v>7.132925973388835</v>
+        <v>10.90031178374301</v>
       </c>
       <c r="K3">
-        <v>12.25446761177839</v>
+        <v>19.14233664889352</v>
       </c>
       <c r="L3">
-        <v>6.143433336038684</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.37382604116567</v>
+        <v>14.28993614883171</v>
       </c>
       <c r="N3">
-        <v>15.51566269472598</v>
+        <v>7.073221013883078</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.51754229505846</v>
+        <v>10.56925809542519</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.397425858222014</v>
+        <v>4.309488001554262</v>
       </c>
       <c r="E4">
-        <v>8.899705540017873</v>
+        <v>9.797264268441312</v>
       </c>
       <c r="F4">
-        <v>28.88025400678384</v>
+        <v>22.89172402811626</v>
       </c>
       <c r="G4">
-        <v>36.98488342160534</v>
+        <v>31.57068902300128</v>
       </c>
       <c r="H4">
-        <v>12.5723048752501</v>
+        <v>3.155974872990876</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.478683633372633</v>
       </c>
       <c r="J4">
-        <v>7.150237249187306</v>
+        <v>10.8289879718852</v>
       </c>
       <c r="K4">
-        <v>11.69804690955888</v>
+        <v>19.11454304744083</v>
       </c>
       <c r="L4">
-        <v>6.024059888667814</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.21132779754009</v>
+        <v>13.73679320479831</v>
       </c>
       <c r="N4">
-        <v>15.65195585873498</v>
+        <v>6.836282085346536</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.3797549713515</v>
+        <v>10.37428452703169</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.392027937517917</v>
+        <v>4.298066301824939</v>
       </c>
       <c r="E5">
-        <v>8.907935474611625</v>
+        <v>9.719748300233212</v>
       </c>
       <c r="F5">
-        <v>28.80612744869725</v>
+        <v>22.67854939010247</v>
       </c>
       <c r="G5">
-        <v>36.81588535757876</v>
+        <v>31.23279079960183</v>
       </c>
       <c r="H5">
-        <v>12.56988508998792</v>
+        <v>3.210924497005691</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.520516144243976</v>
       </c>
       <c r="J5">
-        <v>7.157464144052334</v>
+        <v>10.79563892011825</v>
       </c>
       <c r="K5">
-        <v>11.46389151500568</v>
+        <v>19.08992822590575</v>
       </c>
       <c r="L5">
-        <v>5.975391357273411</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.14550760235749</v>
+        <v>13.51140489725848</v>
       </c>
       <c r="N5">
-        <v>15.70834229289426</v>
+        <v>6.740544267494827</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35681916336311</v>
+        <v>10.33225843804076</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.391144767009095</v>
+        <v>4.297295524889543</v>
       </c>
       <c r="E6">
-        <v>8.909321456456086</v>
+        <v>9.704010392130174</v>
       </c>
       <c r="F6">
-        <v>28.79410146722516</v>
+        <v>22.62491363282389</v>
       </c>
       <c r="G6">
-        <v>36.78820878650659</v>
+        <v>31.1436514407581</v>
       </c>
       <c r="H6">
-        <v>12.56959278562995</v>
+        <v>3.220588731496074</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.530661636843593</v>
       </c>
       <c r="J6">
-        <v>7.158674590616003</v>
+        <v>10.78391244244126</v>
       </c>
       <c r="K6">
-        <v>11.42456188944049</v>
+        <v>19.06993156804188</v>
       </c>
       <c r="L6">
-        <v>5.967310602681483</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.13460476283627</v>
+        <v>13.48110498375533</v>
       </c>
       <c r="N6">
-        <v>15.71775684680775</v>
+        <v>6.728000090124196</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.51568796649554</v>
+        <v>10.54185155192448</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.397352176176906</v>
+        <v>4.312472379218954</v>
       </c>
       <c r="E7">
-        <v>8.899815228055967</v>
+        <v>9.788738731723919</v>
       </c>
       <c r="F7">
-        <v>28.87923530965389</v>
+        <v>22.83967686289778</v>
       </c>
       <c r="G7">
-        <v>36.98257841756847</v>
+        <v>31.4773777587574</v>
       </c>
       <c r="H7">
-        <v>12.57226486321184</v>
+        <v>3.157971797504866</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.487554855184491</v>
       </c>
       <c r="J7">
-        <v>7.150334014948907</v>
+        <v>10.81158982959452</v>
       </c>
       <c r="K7">
-        <v>11.69491904558361</v>
+        <v>19.07090167515356</v>
       </c>
       <c r="L7">
-        <v>6.023403530630193</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.21043839689707</v>
+        <v>13.75385424211986</v>
       </c>
       <c r="N7">
-        <v>15.65271285645498</v>
+        <v>6.844312813882206</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.20706706185072</v>
+        <v>11.43613469630763</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.426680328484618</v>
+        <v>4.374982936055113</v>
       </c>
       <c r="E8">
-        <v>8.860717637281443</v>
+        <v>10.15778644181761</v>
       </c>
       <c r="F8">
-        <v>29.2965110263536</v>
+        <v>23.83111426672798</v>
       </c>
       <c r="G8">
-        <v>37.89623221052752</v>
+        <v>33.01947195348179</v>
       </c>
       <c r="H8">
-        <v>12.60037613514111</v>
+        <v>2.890364080449904</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.297526122296264</v>
       </c>
       <c r="J8">
-        <v>7.115041380195068</v>
+        <v>10.95726744022129</v>
       </c>
       <c r="K8">
-        <v>12.82298057826241</v>
+        <v>19.11438948923865</v>
       </c>
       <c r="L8">
-        <v>6.270551356968726</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.54835900686812</v>
+        <v>14.88408638094369</v>
       </c>
       <c r="N8">
-        <v>15.37306357687839</v>
+        <v>7.330497722406138</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.51580394680115</v>
+        <v>13.02867196761784</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.49141410028741</v>
+        <v>4.486341010102644</v>
       </c>
       <c r="E9">
-        <v>8.794624080235003</v>
+        <v>10.85342516863461</v>
       </c>
       <c r="F9">
-        <v>30.26841640313838</v>
+        <v>25.82775804391245</v>
       </c>
       <c r="G9">
-        <v>39.88694311714239</v>
+        <v>36.10622996941055</v>
       </c>
       <c r="H9">
-        <v>12.71802091492401</v>
+        <v>2.39789618621699</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.940350036761051</v>
       </c>
       <c r="J9">
-        <v>7.051243516096531</v>
+        <v>11.29879614021516</v>
       </c>
       <c r="K9">
-        <v>14.80408632396749</v>
+        <v>19.26738047384451</v>
       </c>
       <c r="L9">
-        <v>6.749773535599579</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>11.217588234431</v>
+        <v>16.87194167659833</v>
       </c>
       <c r="N9">
-        <v>14.84988390419576</v>
+        <v>8.199262153145355</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.43981992923541</v>
+        <v>13.99944334424633</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.543659947022292</v>
+        <v>4.58641686473442</v>
       </c>
       <c r="E10">
-        <v>8.752869441568015</v>
+        <v>11.30456001081158</v>
       </c>
       <c r="F10">
-        <v>31.07918596896005</v>
+        <v>27.03315321970421</v>
       </c>
       <c r="G10">
-        <v>41.4682350482699</v>
+        <v>37.89278243645139</v>
       </c>
       <c r="H10">
-        <v>12.84610326841692</v>
+        <v>2.087988009359202</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.706668685377571</v>
       </c>
       <c r="J10">
-        <v>7.007651714548374</v>
+        <v>11.47991029834681</v>
       </c>
       <c r="K10">
-        <v>16.12166566296293</v>
+        <v>19.17644892644858</v>
       </c>
       <c r="L10">
-        <v>7.095405543317704</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.70901199481875</v>
+        <v>18.27279032528706</v>
       </c>
       <c r="N10">
-        <v>14.47959912114949</v>
+        <v>8.667673604860481</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.85061574711228</v>
+        <v>13.82891489066144</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.568517250427255</v>
+        <v>4.836505182209763</v>
       </c>
       <c r="E11">
-        <v>8.735443649406358</v>
+        <v>11.56750241161397</v>
       </c>
       <c r="F11">
-        <v>31.469556656627</v>
+        <v>25.70013408814895</v>
       </c>
       <c r="G11">
-        <v>42.21277947193573</v>
+        <v>35.36282989113873</v>
       </c>
       <c r="H11">
-        <v>12.91417083596038</v>
+        <v>2.99307395337937</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.675164389276727</v>
       </c>
       <c r="J11">
-        <v>6.988531338861184</v>
+        <v>10.8642268702555</v>
       </c>
       <c r="K11">
-        <v>16.69184675474802</v>
+        <v>17.62750075509148</v>
       </c>
       <c r="L11">
-        <v>7.250697437135243</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.93173016161869</v>
+        <v>19.36451041555329</v>
       </c>
       <c r="N11">
-        <v>14.31392092824867</v>
+        <v>7.785190865423865</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.0047103381317</v>
+        <v>13.51057156976709</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.578093556965214</v>
+        <v>5.052920689056953</v>
       </c>
       <c r="E12">
-        <v>8.729079411649753</v>
+        <v>12.16337310824577</v>
       </c>
       <c r="F12">
-        <v>31.6205153783053</v>
+        <v>24.36271646509244</v>
       </c>
       <c r="G12">
-        <v>42.49829683935925</v>
+        <v>32.92794870585386</v>
       </c>
       <c r="H12">
-        <v>12.94141771336322</v>
+        <v>4.314062320237239</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.675980557251331</v>
       </c>
       <c r="J12">
-        <v>6.981393142105851</v>
+        <v>10.32446932897674</v>
       </c>
       <c r="K12">
-        <v>16.90362728628624</v>
+        <v>16.5324489755365</v>
       </c>
       <c r="L12">
-        <v>7.30918666126141</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12.01589106700202</v>
+        <v>19.98719171074744</v>
       </c>
       <c r="N12">
-        <v>14.25155693135281</v>
+        <v>6.927198945722888</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.97158972894206</v>
+        <v>13.0196280945657</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.576023747553888</v>
+        <v>5.256835504024966</v>
       </c>
       <c r="E13">
-        <v>8.730439478833206</v>
+        <v>12.97840951605718</v>
       </c>
       <c r="F13">
-        <v>31.58786377740159</v>
+        <v>22.83912813051855</v>
       </c>
       <c r="G13">
-        <v>42.43664725442272</v>
+        <v>30.23247851670581</v>
       </c>
       <c r="H13">
-        <v>12.93548319448949</v>
+        <v>5.708417665092399</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.715415036786757</v>
       </c>
       <c r="J13">
-        <v>6.98292592654584</v>
+        <v>9.781382918012508</v>
       </c>
       <c r="K13">
-        <v>16.85819938969119</v>
+        <v>15.68669106726856</v>
       </c>
       <c r="L13">
-        <v>7.296604568311764</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.99777425331507</v>
+        <v>20.3277753150002</v>
       </c>
       <c r="N13">
-        <v>14.26497184018086</v>
+        <v>6.083772787788314</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.86332302113474</v>
+        <v>12.58487550244472</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.569301783744799</v>
+        <v>5.397295612773617</v>
       </c>
       <c r="E14">
-        <v>8.734915304142902</v>
+        <v>13.67305778131151</v>
       </c>
       <c r="F14">
-        <v>31.4819131134394</v>
+        <v>21.66134497771636</v>
       </c>
       <c r="G14">
-        <v>42.23619776264577</v>
+        <v>28.17688676881679</v>
       </c>
       <c r="H14">
-        <v>12.91638261414693</v>
+        <v>6.704951497533204</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.762586089612421</v>
       </c>
       <c r="J14">
-        <v>6.987942023542765</v>
+        <v>9.396553783825688</v>
       </c>
       <c r="K14">
-        <v>16.70935255152615</v>
+        <v>15.24313428414449</v>
       </c>
       <c r="L14">
-        <v>7.25551591667444</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.93865799523515</v>
+        <v>20.44898295440199</v>
       </c>
       <c r="N14">
-        <v>14.30878282833783</v>
+        <v>5.519799572084199</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79681335262113</v>
+        <v>12.43326662068777</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.565205873994308</v>
+        <v>5.42723693592212</v>
       </c>
       <c r="E15">
-        <v>8.73768770385918</v>
+        <v>13.83859559264386</v>
       </c>
       <c r="F15">
-        <v>31.41742443135511</v>
+        <v>21.31860240170235</v>
       </c>
       <c r="G15">
-        <v>42.11388088660019</v>
+        <v>27.59073328631264</v>
       </c>
       <c r="H15">
-        <v>12.90487638228528</v>
+        <v>6.938539082912443</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.786977311316262</v>
       </c>
       <c r="J15">
-        <v>6.991027856227908</v>
+        <v>9.297755359778273</v>
       </c>
       <c r="K15">
-        <v>16.61764307059962</v>
+        <v>15.16541918769267</v>
       </c>
       <c r="L15">
-        <v>7.230305707621031</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.90242285536431</v>
+        <v>20.42415628659631</v>
       </c>
       <c r="N15">
-        <v>14.33566643234846</v>
+        <v>5.376536393332379</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.41277306044701</v>
+        <v>12.08308409505478</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.542057950063724</v>
+        <v>5.342987731553537</v>
       </c>
       <c r="E16">
-        <v>8.754040564873202</v>
+        <v>13.49572459559422</v>
       </c>
       <c r="F16">
-        <v>31.05411094982589</v>
+        <v>20.99581453400264</v>
       </c>
       <c r="G16">
-        <v>41.42008000472109</v>
+        <v>27.15256490979429</v>
       </c>
       <c r="H16">
-        <v>12.84185739781515</v>
+        <v>6.753791557888669</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.884990611778254</v>
       </c>
       <c r="J16">
-        <v>7.00891557245608</v>
+        <v>9.31047219816581</v>
       </c>
       <c r="K16">
-        <v>16.0838208444784</v>
+        <v>15.36821974662224</v>
       </c>
       <c r="L16">
-        <v>7.085214483489061</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.6944349665228</v>
+        <v>19.81757656066072</v>
       </c>
       <c r="N16">
-        <v>14.49048028763185</v>
+        <v>5.274027578454913</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.17466036839715</v>
+        <v>12.05180806944889</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.528141162310371</v>
+        <v>5.200789860613543</v>
       </c>
       <c r="E17">
-        <v>8.764480323515409</v>
+        <v>12.81848224830887</v>
       </c>
       <c r="F17">
-        <v>30.83677414684971</v>
+        <v>21.39824471130513</v>
       </c>
       <c r="G17">
-        <v>41.00087271413624</v>
+        <v>27.95487124816382</v>
       </c>
       <c r="H17">
-        <v>12.8057516187487</v>
+        <v>6.055306546274744</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.935867575789204</v>
       </c>
       <c r="J17">
-        <v>7.020070990746518</v>
+        <v>9.525865025839629</v>
       </c>
       <c r="K17">
-        <v>15.7489046538453</v>
+        <v>15.73307545110637</v>
       </c>
       <c r="L17">
-        <v>6.995680492320351</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>11.56658434417653</v>
+        <v>19.27437998002229</v>
       </c>
       <c r="N17">
-        <v>14.58614585778758</v>
+        <v>5.499016138860069</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.03681019799557</v>
+        <v>12.31265310770946</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.520238788941151</v>
+        <v>4.999512701186172</v>
       </c>
       <c r="E18">
-        <v>8.770632043635853</v>
+        <v>11.91790443898589</v>
       </c>
       <c r="F18">
-        <v>30.71379395474158</v>
+        <v>22.49905524557607</v>
       </c>
       <c r="G18">
-        <v>40.76213087276015</v>
+        <v>29.9683580696043</v>
       </c>
       <c r="H18">
-        <v>12.7859034693778</v>
+        <v>4.871640973254012</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.939783225040219</v>
       </c>
       <c r="J18">
-        <v>7.026554075386439</v>
+        <v>9.952957074131556</v>
       </c>
       <c r="K18">
-        <v>15.55351790123991</v>
+        <v>16.40122062165324</v>
       </c>
       <c r="L18">
-        <v>6.944002369449737</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>11.49297266226168</v>
+        <v>18.71964218544185</v>
       </c>
       <c r="N18">
-        <v>14.64143194784303</v>
+        <v>6.122828771501696</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.98998608434184</v>
+        <v>12.74586245207787</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.517580545545001</v>
+        <v>4.795505581951732</v>
       </c>
       <c r="E19">
-        <v>8.772739909679615</v>
+        <v>11.22328803519725</v>
       </c>
       <c r="F19">
-        <v>30.67250188600935</v>
+        <v>23.98453694949361</v>
       </c>
       <c r="G19">
-        <v>40.68170661708946</v>
+        <v>32.63599252103246</v>
       </c>
       <c r="H19">
-        <v>12.77933918412617</v>
+        <v>3.509093460880298</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.91733092344688</v>
       </c>
       <c r="J19">
-        <v>7.028760602751517</v>
+        <v>10.49459777923819</v>
       </c>
       <c r="K19">
-        <v>15.48688883593115</v>
+        <v>17.3527152951221</v>
       </c>
       <c r="L19">
-        <v>6.926475292470354</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>11.46803794513842</v>
+        <v>18.24302726453573</v>
       </c>
       <c r="N19">
-        <v>14.66019652224811</v>
+        <v>7.042950975107375</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.20010113333753</v>
+        <v>13.68853059498649</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.529612006226164</v>
+        <v>4.572336655726563</v>
       </c>
       <c r="E20">
-        <v>8.763353712986437</v>
+        <v>11.16872058974597</v>
       </c>
       <c r="F20">
-        <v>30.85970006043961</v>
+        <v>26.57813641748953</v>
       </c>
       <c r="G20">
-        <v>41.04525263082988</v>
+        <v>37.17795888880716</v>
       </c>
       <c r="H20">
-        <v>12.80949958870243</v>
+        <v>2.17090265438513</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.793889743125434</v>
       </c>
       <c r="J20">
-        <v>7.018876564630001</v>
+        <v>11.3788971188493</v>
       </c>
       <c r="K20">
-        <v>15.78484141549462</v>
+        <v>19.06485597082238</v>
       </c>
       <c r="L20">
-        <v>7.005230517547839</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>11.58020250547258</v>
+        <v>17.96640147803046</v>
       </c>
       <c r="N20">
-        <v>14.5759351659153</v>
+        <v>8.564551875961216</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.89516397511268</v>
+        <v>14.51128126170275</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.571271696592531</v>
+        <v>4.615317357574082</v>
       </c>
       <c r="E21">
-        <v>8.733594203778846</v>
+        <v>11.56841011235191</v>
       </c>
       <c r="F21">
-        <v>31.51294806019826</v>
+        <v>27.85150959892975</v>
       </c>
       <c r="G21">
-        <v>42.29497796496587</v>
+        <v>39.16553338587676</v>
       </c>
       <c r="H21">
-        <v>12.9219524974031</v>
+        <v>1.890543394585971</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.603291199949752</v>
       </c>
       <c r="J21">
-        <v>6.986465895998522</v>
+        <v>11.6564818062679</v>
       </c>
       <c r="K21">
-        <v>16.75318416100073</v>
+        <v>19.29599609507052</v>
       </c>
       <c r="L21">
-        <v>7.267593507513256</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.95602711876536</v>
+        <v>18.90837814287818</v>
       </c>
       <c r="N21">
-        <v>14.29590449522937</v>
+        <v>9.102736684169605</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.34085985460733</v>
+        <v>15.01564841869586</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.599454729335585</v>
+        <v>4.648313193573396</v>
       </c>
       <c r="E22">
-        <v>8.715516638860526</v>
+        <v>11.81621635529452</v>
       </c>
       <c r="F22">
-        <v>31.95816654923915</v>
+        <v>28.61744187497066</v>
       </c>
       <c r="G22">
-        <v>43.13256742124327</v>
+        <v>40.34389534680681</v>
       </c>
       <c r="H22">
-        <v>13.00405102712587</v>
+        <v>1.724344980138108</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.474230930893427</v>
       </c>
       <c r="J22">
-        <v>6.965880014275632</v>
+        <v>11.82024873615867</v>
       </c>
       <c r="K22">
-        <v>17.36198507608248</v>
+        <v>19.40891666261175</v>
       </c>
       <c r="L22">
-        <v>7.437205375552737</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>12.20059329474056</v>
+        <v>19.5103899611977</v>
       </c>
       <c r="N22">
-        <v>14.11506145040487</v>
+        <v>9.370411346785398</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.10379314760574</v>
+        <v>14.77023124272544</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.584323038316584</v>
+        <v>4.626523343795152</v>
       </c>
       <c r="E23">
-        <v>8.7250361856933</v>
+        <v>11.69062356482074</v>
       </c>
       <c r="F23">
-        <v>31.71886038801554</v>
+        <v>28.25628605334091</v>
       </c>
       <c r="G23">
-        <v>42.68363816064758</v>
+        <v>39.79953409038</v>
       </c>
       <c r="H23">
-        <v>12.95942574046851</v>
+        <v>1.811646180721876</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.53244365584683</v>
       </c>
       <c r="J23">
-        <v>6.976812402287363</v>
+        <v>11.75049904511744</v>
       </c>
       <c r="K23">
-        <v>17.03923649769392</v>
+        <v>19.39701106945866</v>
       </c>
       <c r="L23">
-        <v>7.346861128704273</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>12.07017763041037</v>
+        <v>19.17303618773929</v>
       </c>
       <c r="N23">
-        <v>14.21138969593056</v>
+        <v>9.219928571593048</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.18860233403564</v>
+        <v>13.76224913769861</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.528946731144496</v>
+        <v>4.549437833408723</v>
       </c>
       <c r="E24">
-        <v>8.763862587789934</v>
+        <v>11.19982659140823</v>
       </c>
       <c r="F24">
-        <v>30.8493291225934</v>
+        <v>26.80144631518234</v>
       </c>
       <c r="G24">
-        <v>41.02518140836042</v>
+        <v>37.57987897647484</v>
       </c>
       <c r="H24">
-        <v>12.80780230311805</v>
+        <v>2.150232935855057</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.775069782085203</v>
       </c>
       <c r="J24">
-        <v>7.019416347634437</v>
+        <v>11.4652032166489</v>
       </c>
       <c r="K24">
-        <v>15.76860325303799</v>
+        <v>19.27564658191461</v>
       </c>
       <c r="L24">
-        <v>7.000913583112585</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>11.57404606871233</v>
+        <v>17.87918726791162</v>
       </c>
       <c r="N24">
-        <v>14.58055052503143</v>
+        <v>8.645092900651813</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.16779122185896</v>
+        <v>12.58166420525659</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.473101158263637</v>
+        <v>4.462971085496475</v>
       </c>
       <c r="E25">
-        <v>8.811337573718669</v>
+        <v>10.65777083976966</v>
       </c>
       <c r="F25">
-        <v>29.98869905501277</v>
+        <v>25.2123771816173</v>
       </c>
       <c r="G25">
-        <v>39.32734066257503</v>
+        <v>35.13982559910806</v>
       </c>
       <c r="H25">
-        <v>12.67913593288923</v>
+        <v>2.529524295323647</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.0486366163302</v>
       </c>
       <c r="J25">
-        <v>7.067925499187609</v>
+        <v>11.17445521646588</v>
       </c>
       <c r="K25">
-        <v>14.29259838287199</v>
+        <v>19.150912833292</v>
       </c>
       <c r="L25">
-        <v>6.621059139642833</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>11.03630100341793</v>
+        <v>16.38652246400305</v>
       </c>
       <c r="N25">
-        <v>14.98884814000087</v>
+        <v>7.986605442589997</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.69699677903187</v>
+        <v>10.97611270315967</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.386924137496059</v>
+        <v>4.430668506976356</v>
       </c>
       <c r="E2">
-        <v>10.26471476160471</v>
+        <v>9.629426437886792</v>
       </c>
       <c r="F2">
-        <v>24.16394830306731</v>
+        <v>23.07766993397911</v>
       </c>
       <c r="G2">
-        <v>33.55033626344927</v>
+        <v>31.11705829461949</v>
       </c>
       <c r="H2">
-        <v>2.818590813144651</v>
+        <v>2.595085431271832</v>
       </c>
       <c r="I2">
-        <v>4.23698984794868</v>
+        <v>3.91950189060351</v>
       </c>
       <c r="J2">
-        <v>11.02181476906376</v>
+        <v>11.0386112275725</v>
       </c>
       <c r="K2">
-        <v>19.1858530711283</v>
+        <v>17.56569949749097</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.68125867704343</v>
       </c>
       <c r="M2">
-        <v>15.15093901184662</v>
+        <v>12.28229897681261</v>
       </c>
       <c r="N2">
-        <v>7.445480060328907</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.44945489533026</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.804621947015352</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.01380765757525</v>
+        <v>10.33764080697776</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.339362425101037</v>
+        <v>4.357702509025882</v>
       </c>
       <c r="E3">
-        <v>9.978417551554715</v>
+        <v>9.359789618327794</v>
       </c>
       <c r="F3">
-        <v>23.37730640533906</v>
+        <v>22.42293755336764</v>
       </c>
       <c r="G3">
-        <v>32.32929575757343</v>
+        <v>30.14706593081811</v>
       </c>
       <c r="H3">
-        <v>3.024871280534499</v>
+        <v>2.784401683601654</v>
       </c>
       <c r="I3">
-        <v>4.384425772814379</v>
+        <v>4.04510061890783</v>
       </c>
       <c r="J3">
-        <v>10.90031178374301</v>
+        <v>10.92496713982328</v>
       </c>
       <c r="K3">
-        <v>19.14233664889352</v>
+        <v>17.63441317947805</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.81074291484632</v>
       </c>
       <c r="M3">
-        <v>14.28993614883171</v>
+        <v>12.29457021817055</v>
       </c>
       <c r="N3">
-        <v>7.073221013883078</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14.52963845791277</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.420985748741008</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.56925809542519</v>
+        <v>9.920861755322182</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.309488001554262</v>
+        <v>4.312288302906759</v>
       </c>
       <c r="E4">
-        <v>9.797264268441312</v>
+        <v>9.190162029989171</v>
       </c>
       <c r="F4">
-        <v>22.89172402811626</v>
+        <v>22.02032295138076</v>
       </c>
       <c r="G4">
-        <v>31.57068902300128</v>
+        <v>29.55300650079038</v>
       </c>
       <c r="H4">
-        <v>3.155974872990876</v>
+        <v>2.904775213661371</v>
       </c>
       <c r="I4">
-        <v>4.478683633372633</v>
+        <v>4.125703718777268</v>
       </c>
       <c r="J4">
-        <v>10.8289879718852</v>
+        <v>10.85562372137787</v>
       </c>
       <c r="K4">
-        <v>19.11454304744083</v>
+        <v>17.67535506833965</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.88908522954609</v>
       </c>
       <c r="M4">
-        <v>13.73679320479831</v>
+        <v>12.31340817493338</v>
       </c>
       <c r="N4">
-        <v>6.836282085346536</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>13.93788923300703</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.177298368955159</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.37428452703169</v>
+        <v>9.738097342699616</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.298066301824939</v>
+        <v>4.294616723263508</v>
       </c>
       <c r="E5">
-        <v>9.719748300233212</v>
+        <v>9.118785981730564</v>
       </c>
       <c r="F5">
-        <v>22.67854939010247</v>
+        <v>21.84341297282507</v>
       </c>
       <c r="G5">
-        <v>31.23279079960183</v>
+        <v>29.28811623742776</v>
       </c>
       <c r="H5">
-        <v>3.210924497005691</v>
+        <v>2.955237764534889</v>
       </c>
       <c r="I5">
-        <v>4.520516144243976</v>
+        <v>4.162300597163245</v>
       </c>
       <c r="J5">
-        <v>10.79563892011825</v>
+        <v>10.82315943945151</v>
       </c>
       <c r="K5">
-        <v>19.08992822590575</v>
+        <v>17.68132967453489</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.91093126147577</v>
       </c>
       <c r="M5">
-        <v>13.51140489725848</v>
+        <v>12.3179851841188</v>
       </c>
       <c r="N5">
-        <v>6.740544267494827</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>13.69553764692485</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.078445202970897</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.33225843804076</v>
+        <v>9.699152781505495</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.297295524889543</v>
+        <v>4.292883092639876</v>
       </c>
       <c r="E6">
-        <v>9.704010392130174</v>
+        <v>9.10545429404586</v>
       </c>
       <c r="F6">
-        <v>22.62491363282389</v>
+        <v>21.79833150623065</v>
       </c>
       <c r="G6">
-        <v>31.1436514407581</v>
+        <v>29.21555673598391</v>
       </c>
       <c r="H6">
-        <v>3.220588731496074</v>
+        <v>2.964111734857929</v>
       </c>
       <c r="I6">
-        <v>4.530661636843593</v>
+        <v>4.172093172303081</v>
       </c>
       <c r="J6">
-        <v>10.78391244244126</v>
+        <v>10.81249399930117</v>
       </c>
       <c r="K6">
-        <v>19.06993156804188</v>
+        <v>17.66962569642861</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.90261322879605</v>
       </c>
       <c r="M6">
-        <v>13.48110498375533</v>
+        <v>12.31165595782841</v>
       </c>
       <c r="N6">
-        <v>6.728000090124196</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>13.66162328481222</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.064844806599958</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.54185155192448</v>
+        <v>9.902911128346302</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.312472379218954</v>
+        <v>4.318533905697175</v>
       </c>
       <c r="E7">
-        <v>9.788738731723919</v>
+        <v>9.184400012998333</v>
       </c>
       <c r="F7">
-        <v>22.83967686289778</v>
+        <v>21.94336870391426</v>
       </c>
       <c r="G7">
-        <v>31.4773777587574</v>
+        <v>29.53543750644555</v>
       </c>
       <c r="H7">
-        <v>3.157971797504866</v>
+        <v>2.907125377845522</v>
       </c>
       <c r="I7">
-        <v>4.487554855184491</v>
+        <v>4.136240135116457</v>
       </c>
       <c r="J7">
-        <v>10.81158982959452</v>
+        <v>10.78623840701275</v>
       </c>
       <c r="K7">
-        <v>19.07090167515356</v>
+        <v>17.63074507632927</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.84824594622203</v>
       </c>
       <c r="M7">
-        <v>13.75385424211986</v>
+        <v>12.28685952284645</v>
       </c>
       <c r="N7">
-        <v>6.844312813882206</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>13.94646406706946</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.181410182109241</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.43613469630763</v>
+        <v>10.75399215365458</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.374982936055113</v>
+        <v>4.420965502949046</v>
       </c>
       <c r="E8">
-        <v>10.15778644181761</v>
+        <v>9.529493416086048</v>
       </c>
       <c r="F8">
-        <v>23.83111426672798</v>
+        <v>22.69563454531966</v>
       </c>
       <c r="G8">
-        <v>33.01947195348179</v>
+        <v>30.88800978772878</v>
       </c>
       <c r="H8">
-        <v>2.890364080449904</v>
+        <v>2.662551523792708</v>
       </c>
       <c r="I8">
-        <v>4.297526122296264</v>
+        <v>3.975449024248118</v>
       </c>
       <c r="J8">
-        <v>10.95726744022129</v>
+        <v>10.803142166867</v>
       </c>
       <c r="K8">
-        <v>19.11438948923865</v>
+        <v>17.51200246234274</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.65925635674261</v>
       </c>
       <c r="M8">
-        <v>14.88408638094369</v>
+        <v>12.23296705644237</v>
       </c>
       <c r="N8">
-        <v>7.330497722406138</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.14105676897222</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.676300716876365</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.02867196761784</v>
+        <v>12.23745555000578</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.486341010102644</v>
+        <v>4.598708007267818</v>
       </c>
       <c r="E9">
-        <v>10.85342516863461</v>
+        <v>10.18526976149393</v>
       </c>
       <c r="F9">
-        <v>25.82775804391245</v>
+        <v>24.35032430789361</v>
       </c>
       <c r="G9">
-        <v>36.10622996941055</v>
+        <v>33.437989766733</v>
       </c>
       <c r="H9">
-        <v>2.39789618621699</v>
+        <v>2.211196387992923</v>
       </c>
       <c r="I9">
-        <v>3.940350036761051</v>
+        <v>3.670250779728237</v>
       </c>
       <c r="J9">
-        <v>11.29879614021516</v>
+        <v>11.06238630365905</v>
       </c>
       <c r="K9">
-        <v>19.26738047384451</v>
+        <v>17.36616894546588</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.36389983175477</v>
       </c>
       <c r="M9">
-        <v>16.87194167659833</v>
+        <v>12.27956179310308</v>
       </c>
       <c r="N9">
-        <v>8.199262153145355</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>17.26089724835157</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.574488369990139</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.99944334424633</v>
+        <v>13.17956523052139</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.58641686473442</v>
+        <v>4.767477761901122</v>
       </c>
       <c r="E10">
-        <v>11.30456001081158</v>
+        <v>10.64355296903451</v>
       </c>
       <c r="F10">
-        <v>27.03315321970421</v>
+        <v>25.20290674899051</v>
       </c>
       <c r="G10">
-        <v>37.89278243645139</v>
+        <v>35.28032276583784</v>
       </c>
       <c r="H10">
-        <v>2.087988009359202</v>
+        <v>1.932585326130939</v>
       </c>
       <c r="I10">
-        <v>3.706668685377571</v>
+        <v>3.475331945570723</v>
       </c>
       <c r="J10">
-        <v>11.47991029834681</v>
+        <v>10.89479938112406</v>
       </c>
       <c r="K10">
-        <v>19.17644892644858</v>
+        <v>17.06181492428524</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.00137928010087</v>
       </c>
       <c r="M10">
-        <v>18.27279032528706</v>
+        <v>12.21596966132784</v>
       </c>
       <c r="N10">
-        <v>8.667673604860481</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>18.70340056813698</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.045977872719098</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.82891489066144</v>
+        <v>13.19826625628562</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.836505182209763</v>
+        <v>5.084372408593305</v>
       </c>
       <c r="E11">
-        <v>11.56750241161397</v>
+        <v>11.13108594454341</v>
       </c>
       <c r="F11">
-        <v>25.70013408814895</v>
+        <v>23.7867277246819</v>
       </c>
       <c r="G11">
-        <v>35.36282989113873</v>
+        <v>33.92220028570856</v>
       </c>
       <c r="H11">
-        <v>2.99307395337937</v>
+        <v>2.893111321668685</v>
       </c>
       <c r="I11">
-        <v>3.675164389276727</v>
+        <v>3.457503951227445</v>
       </c>
       <c r="J11">
-        <v>10.8642268702555</v>
+        <v>9.821131621631309</v>
       </c>
       <c r="K11">
-        <v>17.62750075509148</v>
+        <v>15.83326226996668</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.07839467151609</v>
       </c>
       <c r="M11">
-        <v>19.36451041555329</v>
+        <v>11.30118670999505</v>
       </c>
       <c r="N11">
-        <v>7.785190865423865</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>19.64481390456243</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.090700807902055</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.51057156976709</v>
+        <v>13.02626801651353</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.052920689056953</v>
+        <v>5.32214364869857</v>
       </c>
       <c r="E12">
-        <v>12.16337310824577</v>
+        <v>11.81894646202147</v>
       </c>
       <c r="F12">
-        <v>24.36271646509244</v>
+        <v>22.54436442694657</v>
       </c>
       <c r="G12">
-        <v>32.92794870585386</v>
+        <v>32.25876090040358</v>
       </c>
       <c r="H12">
-        <v>4.314062320237239</v>
+        <v>4.245023651395565</v>
       </c>
       <c r="I12">
-        <v>3.675980557251331</v>
+        <v>3.459261475660755</v>
       </c>
       <c r="J12">
-        <v>10.32446932897674</v>
+        <v>9.174217056536687</v>
       </c>
       <c r="K12">
-        <v>16.5324489755365</v>
+        <v>15.06369050854477</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.55278517863849</v>
       </c>
       <c r="M12">
-        <v>19.98719171074744</v>
+        <v>10.67227835152769</v>
       </c>
       <c r="N12">
-        <v>6.927198945722888</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>20.14683090596774</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.181016475021475</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.0196280945657</v>
+        <v>12.65302434920437</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.256835504024966</v>
+        <v>5.498564550945901</v>
       </c>
       <c r="E13">
-        <v>12.97840951605718</v>
+        <v>12.66685522508449</v>
       </c>
       <c r="F13">
-        <v>22.83912813051855</v>
+        <v>21.34128642227648</v>
       </c>
       <c r="G13">
-        <v>30.23247851670581</v>
+        <v>29.95643209459464</v>
       </c>
       <c r="H13">
-        <v>5.708417665092399</v>
+        <v>5.652942852729548</v>
       </c>
       <c r="I13">
-        <v>3.715415036786757</v>
+        <v>3.491742085147561</v>
       </c>
       <c r="J13">
-        <v>9.781382918012508</v>
+        <v>8.868630879275006</v>
       </c>
       <c r="K13">
-        <v>15.68669106726856</v>
+        <v>14.56121533499875</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.2373666391322</v>
       </c>
       <c r="M13">
-        <v>20.3277753150002</v>
+        <v>10.22116081496558</v>
       </c>
       <c r="N13">
-        <v>6.083772787788314</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>20.38967492890062</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.2480637820388</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.58487550244472</v>
+        <v>12.29039070711988</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.397295612773617</v>
+        <v>5.595239837858095</v>
       </c>
       <c r="E14">
-        <v>13.67305778131151</v>
+        <v>13.36017346288456</v>
       </c>
       <c r="F14">
-        <v>21.66134497771636</v>
+        <v>20.49086338465705</v>
       </c>
       <c r="G14">
-        <v>28.17688676881679</v>
+        <v>28.01541514658673</v>
       </c>
       <c r="H14">
-        <v>6.704951497533204</v>
+        <v>6.654453380971051</v>
       </c>
       <c r="I14">
-        <v>3.762586089612421</v>
+        <v>3.531171172765703</v>
       </c>
       <c r="J14">
-        <v>9.396553783825688</v>
+        <v>8.78485683859568</v>
       </c>
       <c r="K14">
-        <v>15.24313428414449</v>
+        <v>14.33560952240307</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.10311551572975</v>
       </c>
       <c r="M14">
-        <v>20.44898295440199</v>
+        <v>10.00206833721441</v>
       </c>
       <c r="N14">
-        <v>5.519799572084199</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>20.45033196151028</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.583578373831272</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.43326662068777</v>
+        <v>12.15217656455265</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.42723693592212</v>
+        <v>5.605200397331254</v>
       </c>
       <c r="E15">
-        <v>13.83859559264386</v>
+        <v>13.52664842699406</v>
       </c>
       <c r="F15">
-        <v>21.31860240170235</v>
+        <v>20.27275603869878</v>
       </c>
       <c r="G15">
-        <v>27.59073328631264</v>
+        <v>27.39043349553906</v>
       </c>
       <c r="H15">
-        <v>6.938539082912443</v>
+        <v>6.888181707788592</v>
       </c>
       <c r="I15">
-        <v>3.786977311316262</v>
+        <v>3.552601610415309</v>
       </c>
       <c r="J15">
-        <v>9.297755359778273</v>
+        <v>8.816344569013236</v>
       </c>
       <c r="K15">
-        <v>15.16541918769267</v>
+        <v>14.31027055582954</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.087178910883</v>
       </c>
       <c r="M15">
-        <v>20.42415628659631</v>
+        <v>9.973158794944014</v>
       </c>
       <c r="N15">
-        <v>5.376536393332379</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>20.4143338181082</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.417913751031475</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.08308409505478</v>
+        <v>11.75635785646056</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.342987731553537</v>
+        <v>5.451622579186656</v>
       </c>
       <c r="E16">
-        <v>13.49572459559422</v>
+        <v>13.22866590175307</v>
       </c>
       <c r="F16">
-        <v>20.99581453400264</v>
+        <v>20.2985968394627</v>
       </c>
       <c r="G16">
-        <v>27.15256490979429</v>
+        <v>26.37172496685645</v>
       </c>
       <c r="H16">
-        <v>6.753791557888669</v>
+        <v>6.693655075481002</v>
       </c>
       <c r="I16">
-        <v>3.884990611778254</v>
+        <v>3.633998488032812</v>
       </c>
       <c r="J16">
-        <v>9.31047219816581</v>
+        <v>9.304291418479897</v>
       </c>
       <c r="K16">
-        <v>15.36821974662224</v>
+        <v>14.54252970719702</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.21563824322388</v>
       </c>
       <c r="M16">
-        <v>19.81757656066072</v>
+        <v>10.16460951623807</v>
       </c>
       <c r="N16">
-        <v>5.274027578454913</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>19.84741809466004</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.376019375697068</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.05180806944889</v>
+        <v>11.65695333804879</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.200789860613543</v>
+        <v>5.290701458135668</v>
       </c>
       <c r="E17">
-        <v>12.81848224830887</v>
+        <v>12.57739615947334</v>
       </c>
       <c r="F17">
-        <v>21.39824471130513</v>
+        <v>20.74877675346462</v>
       </c>
       <c r="G17">
-        <v>27.95487124816382</v>
+        <v>26.75340019418183</v>
       </c>
       <c r="H17">
-        <v>6.055306546274744</v>
+        <v>5.982949679898511</v>
       </c>
       <c r="I17">
-        <v>3.935867575789204</v>
+        <v>3.67659795978354</v>
       </c>
       <c r="J17">
-        <v>9.525865025839629</v>
+        <v>9.679423046116689</v>
       </c>
       <c r="K17">
-        <v>15.73307545110637</v>
+        <v>14.83859520936649</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.40736374680249</v>
       </c>
       <c r="M17">
-        <v>19.27437998002229</v>
+        <v>10.40676809841365</v>
       </c>
       <c r="N17">
-        <v>5.499016138860069</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>19.36109875262288</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.703604427177298</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.31265310770946</v>
+        <v>11.81051292622555</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.999512701186172</v>
+        <v>5.098156560081732</v>
       </c>
       <c r="E18">
-        <v>11.91790443898589</v>
+        <v>11.66733481789506</v>
       </c>
       <c r="F18">
-        <v>22.49905524557607</v>
+        <v>21.69913605542746</v>
       </c>
       <c r="G18">
-        <v>29.9683580696043</v>
+        <v>28.30126220910011</v>
       </c>
       <c r="H18">
-        <v>4.871640973254012</v>
+        <v>4.779825100290058</v>
       </c>
       <c r="I18">
-        <v>3.939783225040219</v>
+        <v>3.676957798999966</v>
       </c>
       <c r="J18">
-        <v>9.952957074131556</v>
+        <v>10.10116671479321</v>
       </c>
       <c r="K18">
-        <v>16.40122062165324</v>
+        <v>15.31943975894503</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.75360790321611</v>
       </c>
       <c r="M18">
-        <v>18.71964218544185</v>
+        <v>10.78500611147265</v>
       </c>
       <c r="N18">
-        <v>6.122828771501696</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>18.89536415676308</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.39972901492058</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.74586245207787</v>
+        <v>12.11464141877982</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.795505581951732</v>
+        <v>4.911781001176719</v>
       </c>
       <c r="E19">
-        <v>11.22328803519725</v>
+        <v>10.87980587277397</v>
       </c>
       <c r="F19">
-        <v>23.98453694949361</v>
+        <v>22.92350383628316</v>
       </c>
       <c r="G19">
-        <v>32.63599252103246</v>
+        <v>30.46692298909082</v>
       </c>
       <c r="H19">
-        <v>3.509093460880298</v>
+        <v>3.385661925792413</v>
       </c>
       <c r="I19">
-        <v>3.91733092344688</v>
+        <v>3.659057056823669</v>
       </c>
       <c r="J19">
-        <v>10.49459777923819</v>
+        <v>10.5475390579341</v>
       </c>
       <c r="K19">
-        <v>17.3527152951221</v>
+        <v>15.97330766504066</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.242481133568</v>
       </c>
       <c r="M19">
-        <v>18.24302726453573</v>
+        <v>11.29090055150022</v>
       </c>
       <c r="N19">
-        <v>7.042950975107375</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>18.52392954917222</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.360371008248065</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.68853059498649</v>
+        <v>12.86688135785981</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.572336655726563</v>
+        <v>4.723877043328688</v>
       </c>
       <c r="E20">
-        <v>11.16872058974597</v>
+        <v>10.52394715298734</v>
       </c>
       <c r="F20">
-        <v>26.57813641748953</v>
+        <v>24.95841641746444</v>
       </c>
       <c r="G20">
-        <v>37.17795888880716</v>
+        <v>34.38432418421783</v>
       </c>
       <c r="H20">
-        <v>2.17090265438513</v>
+        <v>2.005360754695217</v>
       </c>
       <c r="I20">
-        <v>3.793889743125434</v>
+        <v>3.556189608793783</v>
       </c>
       <c r="J20">
-        <v>11.3788971188493</v>
+        <v>11.07696918559611</v>
       </c>
       <c r="K20">
-        <v>19.06485597082238</v>
+        <v>17.07273875376493</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.04356559635165</v>
       </c>
       <c r="M20">
-        <v>17.96640147803046</v>
+        <v>12.17670722884397</v>
       </c>
       <c r="N20">
-        <v>8.564551875961216</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>18.39844565291588</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.945449799368992</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.51128126170275</v>
+        <v>13.73023298730835</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.615317357574082</v>
+        <v>4.885016183493412</v>
       </c>
       <c r="E21">
-        <v>11.56841011235191</v>
+        <v>10.85492491703753</v>
       </c>
       <c r="F21">
-        <v>27.85150959892975</v>
+        <v>25.39004751571484</v>
       </c>
       <c r="G21">
-        <v>39.16553338587676</v>
+        <v>37.34023567441977</v>
       </c>
       <c r="H21">
-        <v>1.890543394585971</v>
+        <v>1.756320920869014</v>
       </c>
       <c r="I21">
-        <v>3.603291199949752</v>
+        <v>3.401381223210518</v>
       </c>
       <c r="J21">
-        <v>11.6564818062679</v>
+        <v>10.13206845143664</v>
       </c>
       <c r="K21">
-        <v>19.29599609507052</v>
+        <v>16.87263426593026</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.80170839241577</v>
       </c>
       <c r="M21">
-        <v>18.90837814287818</v>
+        <v>12.16170645844908</v>
       </c>
       <c r="N21">
-        <v>9.102736684169605</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>19.30123021580845</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.45995047490479</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.01564841869586</v>
+        <v>14.27142564566534</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.648313193573396</v>
+        <v>5.00225821250609</v>
       </c>
       <c r="E22">
-        <v>11.81621635529452</v>
+        <v>11.07490113650458</v>
       </c>
       <c r="F22">
-        <v>28.61744187497066</v>
+        <v>25.59648484498585</v>
       </c>
       <c r="G22">
-        <v>40.34389534680681</v>
+        <v>39.24000588130099</v>
       </c>
       <c r="H22">
-        <v>1.724344980138108</v>
+        <v>1.610353279911435</v>
       </c>
       <c r="I22">
-        <v>3.474230930893427</v>
+        <v>3.292916887575956</v>
       </c>
       <c r="J22">
-        <v>11.82024873615867</v>
+        <v>9.470178005025321</v>
       </c>
       <c r="K22">
-        <v>19.40891666261175</v>
+        <v>16.70520194111542</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.62189536501371</v>
       </c>
       <c r="M22">
-        <v>19.5103899611977</v>
+        <v>12.12889341393351</v>
       </c>
       <c r="N22">
-        <v>9.370411346785398</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>19.86786014670425</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.708322793785578</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.77023124272544</v>
+        <v>13.99120695823166</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.626523343795152</v>
+        <v>4.925167275491448</v>
       </c>
       <c r="E23">
-        <v>11.69062356482074</v>
+        <v>10.96157140320621</v>
       </c>
       <c r="F23">
-        <v>28.25628605334091</v>
+        <v>25.59729662527083</v>
       </c>
       <c r="G23">
-        <v>39.79953409038</v>
+        <v>38.1581524679851</v>
       </c>
       <c r="H23">
-        <v>1.811646180721876</v>
+        <v>1.68611742867358</v>
       </c>
       <c r="I23">
-        <v>3.53244365584683</v>
+        <v>3.337573437762737</v>
       </c>
       <c r="J23">
-        <v>11.75049904511744</v>
+        <v>9.954540258644771</v>
       </c>
       <c r="K23">
-        <v>19.39701106945866</v>
+        <v>16.8543823662381</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.75864615623344</v>
       </c>
       <c r="M23">
-        <v>19.17303618773929</v>
+        <v>12.19518910011758</v>
       </c>
       <c r="N23">
-        <v>9.219928571593048</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>19.56338506214015</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.574372152168472</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.76224913769861</v>
+        <v>12.9223288680661</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.549437833408723</v>
+        <v>4.699153891529586</v>
       </c>
       <c r="E24">
-        <v>11.19982659140823</v>
+        <v>10.520817630558</v>
       </c>
       <c r="F24">
-        <v>26.80144631518234</v>
+        <v>25.14873331187854</v>
       </c>
       <c r="G24">
-        <v>37.57987897647484</v>
+        <v>34.70883444295833</v>
       </c>
       <c r="H24">
-        <v>2.150232935855057</v>
+        <v>1.984620150790609</v>
       </c>
       <c r="I24">
-        <v>3.775069782085203</v>
+        <v>3.534712811311364</v>
       </c>
       <c r="J24">
-        <v>11.4652032166489</v>
+        <v>11.15506103595628</v>
       </c>
       <c r="K24">
-        <v>19.27564658191461</v>
+        <v>17.22695195865781</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.16000967769324</v>
       </c>
       <c r="M24">
-        <v>17.87918726791162</v>
+        <v>12.29456658455585</v>
       </c>
       <c r="N24">
-        <v>8.645092900651813</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>18.3246167885415</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.033044308490672</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.58166420525659</v>
+        <v>11.81630513324269</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.462971085496475</v>
+        <v>4.55319769954511</v>
       </c>
       <c r="E25">
-        <v>10.65777083976966</v>
+        <v>10.00822325103773</v>
       </c>
       <c r="F25">
-        <v>25.2123771816173</v>
+        <v>23.87770260918386</v>
       </c>
       <c r="G25">
-        <v>35.13982559910806</v>
+        <v>32.54268585878926</v>
       </c>
       <c r="H25">
-        <v>2.529524295323647</v>
+        <v>2.331082415952527</v>
       </c>
       <c r="I25">
-        <v>4.0486366163302</v>
+        <v>3.766754140356225</v>
       </c>
       <c r="J25">
-        <v>11.17445521646588</v>
+        <v>11.04226419987461</v>
       </c>
       <c r="K25">
-        <v>19.150912833292</v>
+        <v>17.36203830343806</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.40922149897419</v>
       </c>
       <c r="M25">
-        <v>16.38652246400305</v>
+        <v>12.22497378147351</v>
       </c>
       <c r="N25">
-        <v>7.986605442589997</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.74638036762149</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.35473491793263</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
